--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="256">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -570,12 +570,6 @@
     <t>الحاج/حسين</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر يناير /2024</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر فبراير /2024</t>
-  </si>
-  <si>
     <t>تحت حساب صيانة شهر مارس /2024</t>
   </si>
   <si>
@@ -586,12 +580,6 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر يونية /2024</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر يوليو /2024</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر نوفمبر / 2024</t>
   </si>
   <si>
     <t>تحت حساب صيانة شهر ديسمبر /2024</t>
@@ -784,6 +772,45 @@
   </si>
   <si>
     <t>تحت حساب شراء 2متر سلك + شكرتون (50جنيه)  لاصلاح اللمبة الخاصة بالباب الرئيسى بالاضافة الى مصنعية كهربائى 100 جنيه</t>
+  </si>
+  <si>
+    <t>تحت حساب اكرامية لمحصل الكهرباء</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر يناير</t>
+  </si>
+  <si>
+    <t>أ/مصطفى</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر1 /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يناير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر فبراير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر مارس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر ابريل /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر مايو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يونية /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يوليو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر نوفمبر / 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر ديسمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2036,24 +2063,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155121152"/>
-        <c:axId val="155122688"/>
+        <c:axId val="168540416"/>
+        <c:axId val="168112128"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="155121152"/>
+        <c:axId val="168540416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155122688"/>
+        <c:crossAx val="168112128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155122688"/>
+        <c:axId val="168112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2088,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155121152"/>
+        <c:crossAx val="168540416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3254,7 +3281,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5557,7 +5584,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -5963,7 +5990,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5995,7 +6022,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6619,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6677,7 +6704,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -6722,15 +6749,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="96">
-        <v>45349</v>
-      </c>
-      <c r="D6" s="39"/>
+        <v>45315</v>
+      </c>
+      <c r="D6" s="39">
+        <v>200</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="39">
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6747,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="96">
-        <v>45349</v>
+        <v>45715</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="8"/>
@@ -6755,7 +6784,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6772,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="96">
-        <v>45395</v>
+        <v>45760</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="8"/>
@@ -6780,7 +6809,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6797,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="96">
-        <v>45395</v>
+        <v>45760</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="8"/>
@@ -6805,7 +6834,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6822,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="96">
-        <v>45502</v>
+        <v>45867</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="8"/>
@@ -6830,7 +6859,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6847,7 +6876,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="96">
-        <v>45502</v>
+        <v>45867</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="8"/>
@@ -6855,7 +6884,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6872,7 +6901,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="96">
-        <v>45502</v>
+        <v>45867</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="8"/>
@@ -6880,7 +6909,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6897,7 +6926,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="96">
-        <v>45606</v>
+        <v>45971</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="8"/>
@@ -6922,7 +6951,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="96">
-        <v>45606</v>
+        <v>45971</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="8"/>
@@ -6947,7 +6976,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="96">
-        <v>45606</v>
+        <v>45971</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="8"/>
@@ -6972,7 +7001,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="96">
-        <v>45606</v>
+        <v>45971</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="8"/>
@@ -6980,7 +7009,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7003,7 +7032,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7391,7 +7420,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7416,7 +7445,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7441,7 +7470,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7466,7 +7495,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7491,7 +7520,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7516,7 +7545,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7541,7 +7570,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7566,7 +7595,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7591,7 +7620,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -7616,7 +7645,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -7641,7 +7670,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7666,7 +7695,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8669,7 +8698,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -8692,7 +8721,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9353,7 +9382,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9378,7 +9407,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9403,7 +9432,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9428,7 +9457,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9453,7 +9482,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9478,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9503,7 +9532,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9528,7 +9557,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9553,7 +9582,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9578,7 +9607,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10560,7 +10589,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10585,7 +10614,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10610,7 +10639,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10635,7 +10664,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10660,7 +10689,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10685,7 +10714,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10710,7 +10739,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10735,7 +10764,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10760,7 +10789,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10785,7 +10814,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11792,7 +11821,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -11840,7 +11869,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11865,7 +11894,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11890,7 +11919,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11915,7 +11944,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11940,7 +11969,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11965,7 +11994,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11990,7 +12019,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12015,7 +12044,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12040,7 +12069,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12065,7 +12094,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12090,7 +12119,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12115,7 +12144,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12393,7 +12422,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12410,55 +12439,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="G2" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="H2" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="I2" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="J2" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="K2" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="L2" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="M2" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="O2" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="P2" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="Q2" s="122" t="s">
         <v>233</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="O2" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q2" s="122" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -12487,7 +12516,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12551,7 +12580,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -12581,7 +12610,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12606,13 +12635,13 @@
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="64">
         <v>4</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -12643,7 +12672,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -12660,12 +12689,21 @@
       <c r="A10" s="64">
         <v>5</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="70">
+        <v>45681</v>
+      </c>
+      <c r="C10" s="74">
+        <v>200</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="64">
+        <v>8</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>246</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -15698,7 +15736,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C3" s="86">
         <v>5603</v>
@@ -15731,15 +15769,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>6453</v>
+        <v>6538</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16097,8 +16135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16133,7 +16171,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>150</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16170,7 +16208,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -16185,9 +16223,15 @@
       <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="79">
+        <v>45667</v>
+      </c>
+      <c r="C6" s="74">
+        <v>111</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16203,9 +16247,15 @@
       <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="79">
+        <v>45667</v>
+      </c>
+      <c r="C7" s="74">
+        <v>4</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>243</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -17823,7 +17873,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -17899,7 +17949,7 @@
         <v>45407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -17945,7 +17995,7 @@
         <v>45406</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -17968,7 +18018,7 @@
         <v>45406</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18012,7 +18062,7 @@
         <v>45406</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18035,7 +18085,7 @@
         <v>45434</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18056,7 +18106,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18100,7 +18150,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18146,7 +18196,7 @@
         <v>45409</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18169,7 +18219,7 @@
         <v>45409</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -18387,7 +18437,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -18405,7 +18455,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -18460,7 +18510,7 @@
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -18481,7 +18531,7 @@
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18523,7 +18573,7 @@
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -18544,7 +18594,7 @@
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18586,7 +18636,7 @@
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18607,7 +18657,7 @@
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18628,7 +18678,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18670,7 +18720,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18712,7 +18762,7 @@
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18733,7 +18783,7 @@
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -23415,7 +23465,7 @@
       </c>
       <c r="J6" s="31">
         <f>Apartment8!D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K6" s="31">
         <f>Apartment9!D6</f>
@@ -24626,12 +24676,12 @@
       </c>
       <c r="C12" s="113">
         <f>Apartment8!D4</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="116">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>123</v>
@@ -25111,7 +25161,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="260">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -811,6 +811,18 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر ديسمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر يناير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب اكرامية لمحصل المياه</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء كيس ايريال</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر يناير /2025</t>
   </si>
 </sst>
 </file>
@@ -2063,24 +2075,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="168540416"/>
-        <c:axId val="168112128"/>
+        <c:axId val="118016640"/>
+        <c:axId val="117653888"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="168540416"/>
+        <c:axId val="118016640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168112128"/>
+        <c:crossAx val="117653888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168112128"/>
+        <c:axId val="117653888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2100,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168540416"/>
+        <c:crossAx val="118016640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6646,7 +6658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -15773,11 +15785,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>265</v>
+        <v>1290</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>6538</v>
+        <v>5513</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16135,8 +16147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16171,7 +16183,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>265</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16271,9 +16283,15 @@
       <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="79">
+        <v>45686</v>
+      </c>
+      <c r="C8" s="74">
+        <v>570</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>256</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -16289,9 +16307,15 @@
       <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="79">
+        <v>45686</v>
+      </c>
+      <c r="C9" s="74">
+        <v>5</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>257</v>
+      </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
@@ -16305,9 +16329,15 @@
       <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="79">
+        <v>45672</v>
+      </c>
+      <c r="C10" s="74">
+        <v>50</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>258</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -16323,9 +16353,15 @@
       <c r="A11" s="39">
         <v>7</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="64"/>
+      <c r="B11" s="79">
+        <v>45688</v>
+      </c>
+      <c r="C11" s="74">
+        <v>400</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="260">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2075,24 +2075,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="118016640"/>
-        <c:axId val="117653888"/>
+        <c:axId val="197625344"/>
+        <c:axId val="197626880"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="118016640"/>
+        <c:axId val="197625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117653888"/>
+        <c:crossAx val="197626880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="117653888"/>
+        <c:axId val="197626880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2100,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118016640"/>
+        <c:crossAx val="197625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12433,8 +12433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12731,12 +12731,21 @@
       <c r="A11" s="64">
         <v>6</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="70">
+        <v>45659</v>
+      </c>
+      <c r="C11" s="74">
+        <v>200</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="64">
+        <v>7</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>248</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -12752,12 +12761,22 @@
       <c r="A12" s="64">
         <v>7</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="70">
+        <v>45659</v>
+      </c>
+      <c r="C12" s="74">
+        <v>100</v>
+      </c>
       <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
+      <c r="E12" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="64">
+        <v>4</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>248</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -12773,11 +12792,22 @@
       <c r="A13" s="64">
         <v>8</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="74"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
+      <c r="B13" s="70">
+        <v>45659</v>
+      </c>
+      <c r="C13" s="74">
+        <v>100</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="64">
+        <v>3</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>248</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -15781,7 +15811,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -15789,7 +15819,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5513</v>
+        <v>5913</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16147,7 +16177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="261">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر يناير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب اصلاح كالون الباب العمومى واصلاح تمام اغلاق الضرفة اليمنى وانا خارج من البيت</t>
   </si>
 </sst>
 </file>
@@ -2075,24 +2078,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="197625344"/>
-        <c:axId val="197626880"/>
+        <c:axId val="152026112"/>
+        <c:axId val="151720704"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="197625344"/>
+        <c:axId val="152026112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197626880"/>
+        <c:crossAx val="151720704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197626880"/>
+        <c:axId val="151720704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197625344"/>
+        <c:crossAx val="152026112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12433,8 +12436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12823,7 +12826,9 @@
       <c r="A14" s="64">
         <v>9</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="70">
+        <v>45698</v>
+      </c>
       <c r="C14" s="74"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
@@ -15815,11 +15820,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>1290</v>
+        <v>1390</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5913</v>
+        <v>5813</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16177,8 +16182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16213,7 +16218,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>1290</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16407,9 +16412,15 @@
       <c r="A12" s="39">
         <v>8</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="64"/>
+      <c r="B12" s="79">
+        <v>45698</v>
+      </c>
+      <c r="C12" s="74">
+        <v>100</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>260</v>
+      </c>
       <c r="S12">
         <v>1</v>
       </c>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="262">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>تحت حساب اصلاح كالون الباب العمومى واصلاح تمام اغلاق الضرفة اليمنى وانا خارج من البيت</t>
+  </si>
+  <si>
+    <t>تحت حساب كهربة خلفية المنزل</t>
   </si>
 </sst>
 </file>
@@ -2078,24 +2081,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152026112"/>
-        <c:axId val="151720704"/>
+        <c:axId val="150972672"/>
+        <c:axId val="150474752"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="152026112"/>
+        <c:axId val="150972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151720704"/>
+        <c:crossAx val="150474752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="151720704"/>
+        <c:axId val="150474752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2106,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152026112"/>
+        <c:crossAx val="150972672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15750,7 +15753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15820,11 +15823,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>1390</v>
+        <v>1470</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5813</v>
+        <v>5733</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16182,8 +16185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16218,7 +16221,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>1390</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16430,9 +16433,15 @@
       <c r="A13" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="79">
+        <v>45699</v>
+      </c>
+      <c r="C13" s="74">
+        <v>66</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="S13">
         <v>4</v>
       </c>
@@ -16441,9 +16450,15 @@
       <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="79">
+        <v>45699</v>
+      </c>
+      <c r="C14" s="74">
+        <v>4</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>243</v>
+      </c>
       <c r="S14">
         <v>1</v>
       </c>
@@ -16452,9 +16467,15 @@
       <c r="A15" s="39">
         <v>11</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="79">
+        <v>45699</v>
+      </c>
+      <c r="C15" s="74">
+        <v>10</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>261</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="258">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -486,42 +486,6 @@
     <t>حساب صيانة شهر فبراير /2023</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر مارس /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر ابريل /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر مايو /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر يونية /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر ديسمبر /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر يولية /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر نوفمبر /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر يناير/2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر فبراير/2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر اكتوبر /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر اغسطس /2023</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر سبتمبر /2023</t>
-  </si>
-  <si>
     <t>م/نادية</t>
   </si>
   <si>
@@ -829,6 +793,30 @@
   </si>
   <si>
     <t>تحت حساب كهربة خلفية المنزل</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى يناير وفبراير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يناير/2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر فبراير/2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يولية /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر اغسطس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر اكتوبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر نوفمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2081,24 +2069,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150972672"/>
-        <c:axId val="150474752"/>
+        <c:axId val="164739328"/>
+        <c:axId val="162799616"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="150972672"/>
+        <c:axId val="164739328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150474752"/>
+        <c:crossAx val="162799616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150474752"/>
+        <c:axId val="162799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150972672"/>
+        <c:crossAx val="164739328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3299,7 +3287,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4429,7 +4417,7 @@
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="63" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75">
@@ -5321,7 +5309,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5602,7 +5590,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -6008,7 +5996,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6040,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6777,7 +6765,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6802,7 +6790,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6827,7 +6815,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6852,7 +6840,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6877,7 +6865,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6902,7 +6890,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6927,7 +6915,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7027,7 +7015,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7050,7 +7038,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7438,7 +7426,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7463,7 +7451,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7488,7 +7476,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7513,7 +7501,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7538,7 +7526,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7563,7 +7551,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7588,7 +7576,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7613,7 +7601,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7638,7 +7626,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -7663,7 +7651,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -7688,7 +7676,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7713,7 +7701,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8716,7 +8704,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -8739,7 +8727,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9400,7 +9388,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9425,7 +9413,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9450,7 +9438,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9475,7 +9463,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9500,7 +9488,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9525,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9550,7 +9538,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9575,7 +9563,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9600,7 +9588,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9625,7 +9613,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10607,7 +10595,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10632,7 +10620,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10657,7 +10645,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10682,7 +10670,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10707,7 +10695,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10732,7 +10720,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10757,7 +10745,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10782,7 +10770,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10807,7 +10795,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10832,7 +10820,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11109,15 +11097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="85" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="97" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="85" customWidth="1"/>
@@ -11168,7 +11156,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -11213,15 +11201,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="96">
-        <v>45240</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>45708</v>
+      </c>
+      <c r="D6" s="8">
+        <v>50</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="39">
         <v>50</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11238,15 +11228,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="96">
-        <v>45240</v>
-      </c>
-      <c r="D7" s="64"/>
+        <v>45708</v>
+      </c>
+      <c r="D7" s="64">
+        <v>50</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="39">
         <v>50</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11262,16 +11254,14 @@
       <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C8" s="96"/>
       <c r="D8" s="64"/>
       <c r="E8" s="8"/>
       <c r="F8" s="39">
         <v>50</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11287,16 +11277,14 @@
       <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C9" s="96"/>
       <c r="D9" s="64"/>
       <c r="E9" s="8"/>
       <c r="F9" s="39">
         <v>50</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11312,16 +11300,14 @@
       <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C10" s="96"/>
       <c r="D10" s="64"/>
       <c r="E10" s="8"/>
       <c r="F10" s="39">
         <v>50</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11337,16 +11323,14 @@
       <c r="B11" s="39">
         <v>6</v>
       </c>
-      <c r="C11" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C11" s="96"/>
       <c r="D11" s="64"/>
       <c r="E11" s="8"/>
       <c r="F11" s="39">
         <v>50</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11362,16 +11346,14 @@
       <c r="B12" s="39">
         <v>7</v>
       </c>
-      <c r="C12" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C12" s="96"/>
       <c r="D12" s="64"/>
       <c r="E12" s="8"/>
       <c r="F12" s="39">
         <v>50</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11387,16 +11369,14 @@
       <c r="B13" s="39">
         <v>8</v>
       </c>
-      <c r="C13" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C13" s="96"/>
       <c r="D13" s="64"/>
       <c r="E13" s="8"/>
       <c r="F13" s="39">
         <v>50</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11412,16 +11392,14 @@
       <c r="B14" s="39">
         <v>9</v>
       </c>
-      <c r="C14" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C14" s="96"/>
       <c r="D14" s="64"/>
       <c r="E14" s="8"/>
       <c r="F14" s="39">
         <v>50</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11437,16 +11415,14 @@
       <c r="B15" s="39">
         <v>10</v>
       </c>
-      <c r="C15" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C15" s="96"/>
       <c r="D15" s="64"/>
       <c r="E15" s="8"/>
       <c r="F15" s="39">
         <v>50</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11462,16 +11438,14 @@
       <c r="B16" s="39">
         <v>11</v>
       </c>
-      <c r="C16" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C16" s="96"/>
       <c r="D16" s="64"/>
       <c r="E16" s="8"/>
       <c r="F16" s="39">
         <v>50</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11487,16 +11461,14 @@
       <c r="B17" s="39">
         <v>12</v>
       </c>
-      <c r="C17" s="96">
-        <v>45240</v>
-      </c>
+      <c r="C17" s="96"/>
       <c r="D17" s="64"/>
       <c r="E17" s="8"/>
       <c r="F17" s="39">
         <v>50</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11839,7 +11811,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -11887,7 +11859,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11912,7 +11884,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11937,7 +11909,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11962,7 +11934,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11987,7 +11959,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -12012,7 +11984,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12037,7 +12009,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12062,7 +12034,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12087,7 +12059,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12112,7 +12084,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12137,7 +12109,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12162,7 +12134,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12440,7 +12412,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12457,55 +12429,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="O2" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="P2" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="Q2" s="122" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="122" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="122" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="122" t="s">
-        <v>227</v>
-      </c>
-      <c r="L2" s="122" t="s">
-        <v>228</v>
-      </c>
-      <c r="M2" s="122" t="s">
-        <v>229</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q2" s="122" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -12534,7 +12506,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12592,13 +12564,13 @@
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F6" s="64">
         <v>12</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -12628,7 +12600,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12653,13 +12625,13 @@
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F8" s="64">
         <v>4</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -12684,13 +12656,13 @@
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F9" s="64">
         <v>3</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -12714,13 +12686,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F10" s="64">
         <v>8</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -12750,7 +12722,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12775,13 +12747,13 @@
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F12" s="64">
         <v>4</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12806,13 +12778,13 @@
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F13" s="64">
         <v>3</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12830,13 +12802,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="70">
-        <v>45698</v>
-      </c>
-      <c r="C14" s="74"/>
+        <v>45708</v>
+      </c>
+      <c r="C14" s="74">
+        <v>100</v>
+      </c>
       <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="E14" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="64">
+        <v>2</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>250</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -15753,7 +15733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15786,7 +15766,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C3" s="86">
         <v>5603</v>
@@ -15819,15 +15799,15 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>1470</v>
+        <v>2045</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5733</v>
+        <v>5258</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16186,7 +16166,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16221,7 +16201,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>1470</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16244,7 +16224,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="S4" s="63" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
@@ -16258,7 +16238,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -16280,7 +16260,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -16304,7 +16284,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16328,7 +16308,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16352,7 +16332,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -16374,7 +16354,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16398,7 +16378,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16422,7 +16402,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -16440,7 +16420,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -16457,7 +16437,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -16474,7 +16454,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16490,9 +16470,15 @@
       <c r="A16" s="39">
         <v>12</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="79">
+        <v>45706</v>
+      </c>
+      <c r="C16" s="74">
+        <v>570</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>244</v>
+      </c>
       <c r="S16">
         <v>6</v>
       </c>
@@ -16501,9 +16487,15 @@
       <c r="A17" s="39">
         <v>13</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="79">
+        <v>45706</v>
+      </c>
+      <c r="C17" s="74">
+        <v>5</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>245</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -16759,7 +16751,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="T33" s="63" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75">
@@ -17288,7 +17280,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="63" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B1" s="63"/>
     </row>
@@ -17297,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -17305,7 +17297,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17313,7 +17305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -17321,7 +17313,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -17329,7 +17321,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -17337,7 +17329,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -17345,7 +17337,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -17353,7 +17345,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -17953,7 +17945,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -17971,7 +17963,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -18047,7 +18039,7 @@
         <v>45407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18070,7 +18062,7 @@
         <v>45407</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -18093,7 +18085,7 @@
         <v>45406</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -18116,7 +18108,7 @@
         <v>45406</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18137,7 +18129,7 @@
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -18160,7 +18152,7 @@
         <v>45406</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18183,7 +18175,7 @@
         <v>45434</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18204,7 +18196,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18227,7 +18219,7 @@
         <v>45416</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -18248,7 +18240,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18271,7 +18263,7 @@
         <v>45416</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -18294,7 +18286,7 @@
         <v>45409</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18317,7 +18309,7 @@
         <v>45409</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -18535,7 +18527,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -18553,7 +18545,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -18608,7 +18600,7 @@
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -18629,7 +18621,7 @@
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18650,7 +18642,7 @@
       </c>
       <c r="F7" s="65"/>
       <c r="G7" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -18671,7 +18663,7 @@
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -18692,7 +18684,7 @@
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18713,7 +18705,7 @@
       </c>
       <c r="F10" s="65"/>
       <c r="G10" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -18734,7 +18726,7 @@
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18755,7 +18747,7 @@
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18776,7 +18768,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18797,7 +18789,7 @@
       </c>
       <c r="F14" s="65"/>
       <c r="G14" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -18818,7 +18810,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18839,7 +18831,7 @@
       </c>
       <c r="F16" s="65"/>
       <c r="G16" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -18860,7 +18852,7 @@
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18881,7 +18873,7 @@
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -23539,7 +23531,7 @@
       </c>
       <c r="D6" s="31">
         <f>Apartment2!D6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" s="31">
         <f>Apartment3!D6</f>
@@ -23601,7 +23593,7 @@
       </c>
       <c r="D7" s="31">
         <f>Apartment2!D7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="31">
         <f>Apartment3!D7</f>
@@ -24612,12 +24604,12 @@
       </c>
       <c r="C6" s="113">
         <f>Apartment2!D4</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="114"/>
       <c r="E6" s="116">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -25259,7 +25251,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -25534,7 +25526,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="260">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر نوفمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى فبراير ومارس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر فبراير /2025</t>
   </si>
 </sst>
 </file>
@@ -2069,24 +2075,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164739328"/>
-        <c:axId val="162799616"/>
+        <c:axId val="165067776"/>
+        <c:axId val="164639488"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="164739328"/>
+        <c:axId val="165067776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162799616"/>
+        <c:crossAx val="164639488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162799616"/>
+        <c:axId val="164639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2100,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164739328"/>
+        <c:crossAx val="165067776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6652,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6710,7 +6716,7 @@
       <c r="C4" s="95"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -6784,7 +6790,9 @@
       <c r="C7" s="96">
         <v>45715</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="39">
+        <v>200</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="39">
         <v>200</v>
@@ -6809,7 +6817,9 @@
       <c r="C8" s="96">
         <v>45760</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="39">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="39">
         <v>200</v>
@@ -11097,7 +11107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -12412,7 +12422,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12506,7 +12516,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12832,12 +12842,21 @@
       <c r="A15" s="64">
         <v>10</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
+      <c r="B15" s="70">
+        <v>45716</v>
+      </c>
+      <c r="C15" s="74">
+        <v>400</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="64">
+        <v>8</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>258</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -15799,11 +15818,11 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>2045</v>
+        <v>2445</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
@@ -16165,8 +16184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16201,7 +16220,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>2045</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16510,9 +16529,15 @@
       <c r="A18" s="39">
         <v>14</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="79">
+        <v>45716</v>
+      </c>
+      <c r="C18" s="74">
+        <v>400</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -23617,7 +23642,7 @@
       </c>
       <c r="J7" s="31">
         <f>Apartment8!D7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K7" s="31">
         <f>Apartment9!D7</f>
@@ -23679,7 +23704,7 @@
       </c>
       <c r="J8" s="31">
         <f>Apartment8!D8</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="31">
         <f>Apartment9!D8</f>
@@ -24766,12 +24791,12 @@
       </c>
       <c r="C12" s="113">
         <f>Apartment8!D4</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="116">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>123</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="258">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -543,9 +543,6 @@
     <t>تحت حساب صيانة شهر مايو /2024</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر يونية /2024</t>
-  </si>
-  <si>
     <t>تحت حساب صيانة شهر ديسمبر /2024</t>
   </si>
   <si>
@@ -637,12 +634,6 @@
   </si>
   <si>
     <t>سعد عنان</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر اغسطس /2024</t>
-  </si>
-  <si>
-    <t>تحت حساب صيانة شهر سبتمبر /2024</t>
   </si>
   <si>
     <t>عملية اصلاح وتغيير 3 متر ماسورة المياه العذبة التى ضربت 30/8/2024</t>
@@ -823,6 +814,9 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر فبراير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة 3شهور 1،2،3 / 2025</t>
   </si>
 </sst>
 </file>
@@ -2075,24 +2069,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165067776"/>
-        <c:axId val="164639488"/>
+        <c:axId val="158705920"/>
+        <c:axId val="158339072"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="165067776"/>
+        <c:axId val="158705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164639488"/>
+        <c:crossAx val="158339072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="164639488"/>
+        <c:axId val="158339072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165067776"/>
+        <c:crossAx val="158705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,7 +3287,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5596,7 +5590,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -6002,7 +5996,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6034,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6771,7 +6765,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6798,7 +6792,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6825,7 +6819,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6850,7 +6844,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6875,7 +6869,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6900,7 +6894,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6925,7 +6919,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7025,7 +7019,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7048,7 +7042,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7326,7 +7320,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7383,7 +7377,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="102">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="102">
@@ -7430,13 +7424,15 @@
       <c r="C6" s="70">
         <v>45314</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="39">
+        <v>200</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="39">
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7455,13 +7451,15 @@
       <c r="C7" s="70">
         <v>45322</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="39">
+        <v>200</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="39">
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7478,15 +7476,17 @@
         <v>3</v>
       </c>
       <c r="C8" s="70">
-        <v>45384</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>45719</v>
+      </c>
+      <c r="D8" s="39">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="39">
         <v>200</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -7511,7 +7511,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -7536,7 +7536,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7561,7 +7561,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7586,7 +7586,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -7611,7 +7611,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7636,7 +7636,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -7661,7 +7661,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -7686,7 +7686,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -7711,7 +7711,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8714,7 +8714,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -8737,7 +8737,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9236,15 +9236,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D17" sqref="D6:D17"/>
+    <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
@@ -9295,7 +9295,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -9342,7 +9342,9 @@
       <c r="C6" s="9">
         <v>45292</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>100</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>100</v>
@@ -9367,7 +9369,9 @@
       <c r="C7" s="9">
         <v>45322</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>100</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>100</v>
@@ -9390,9 +9394,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="82">
-        <v>45384</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>45719</v>
+      </c>
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>100</v>
@@ -9473,7 +9479,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9498,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9523,7 +9529,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9548,7 +9554,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9573,7 +9579,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9598,7 +9604,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9623,7 +9629,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10443,7 +10449,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10502,7 +10508,7 @@
       <c r="C4" s="81"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -10549,7 +10555,9 @@
       <c r="C6" s="82">
         <v>45292</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="64">
+        <v>100</v>
+      </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64">
         <v>100</v>
@@ -10574,7 +10582,9 @@
       <c r="C7" s="82">
         <v>45322</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="64">
+        <v>100</v>
+      </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64">
         <v>100</v>
@@ -10597,9 +10607,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="82">
-        <v>45384</v>
-      </c>
-      <c r="D8" s="64"/>
+        <v>45719</v>
+      </c>
+      <c r="D8" s="64">
+        <v>100</v>
+      </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64">
         <v>100</v>
@@ -10680,7 +10692,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10705,7 +10717,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10730,7 +10742,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10755,7 +10767,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10780,7 +10792,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10805,7 +10817,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10830,7 +10842,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11221,7 +11233,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11248,7 +11260,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11271,7 +11283,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11294,7 +11306,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11317,7 +11329,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11340,7 +11352,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11363,7 +11375,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11386,7 +11398,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11409,7 +11421,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11432,7 +11444,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11455,7 +11467,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11478,7 +11490,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11755,8 +11767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11813,7 +11825,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -11821,7 +11833,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -11861,15 +11873,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="70">
-        <v>45382</v>
-      </c>
-      <c r="D6" s="92"/>
+        <v>45722</v>
+      </c>
+      <c r="D6" s="92">
+        <v>100</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="92">
         <v>100</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11886,15 +11900,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="70">
-        <v>45382</v>
-      </c>
-      <c r="D7" s="92"/>
+        <v>45722</v>
+      </c>
+      <c r="D7" s="92">
+        <v>100</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="92">
         <v>100</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11911,15 +11927,17 @@
         <v>3</v>
       </c>
       <c r="C8" s="70">
-        <v>45382</v>
-      </c>
-      <c r="D8" s="92"/>
+        <v>45722</v>
+      </c>
+      <c r="D8" s="92">
+        <v>100</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="92">
         <v>100</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11936,7 +11954,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="70">
-        <v>45492</v>
+        <v>45857</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="8"/>
@@ -11944,7 +11962,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11961,7 +11979,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="70">
-        <v>45492</v>
+        <v>45857</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="8"/>
@@ -11969,7 +11987,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11986,7 +12004,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="70">
-        <v>45492</v>
+        <v>45857</v>
       </c>
       <c r="D11" s="92"/>
       <c r="E11" s="8"/>
@@ -11994,7 +12012,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12011,7 +12029,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="70">
-        <v>45492</v>
+        <v>45857</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="8"/>
@@ -12019,7 +12037,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12036,7 +12054,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="70">
-        <v>45576</v>
+        <v>45941</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="8"/>
@@ -12044,7 +12062,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12061,7 +12079,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="96">
-        <v>45576</v>
+        <v>45941</v>
       </c>
       <c r="D14" s="92"/>
       <c r="E14" s="8"/>
@@ -12069,7 +12087,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12086,7 +12104,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="96">
-        <v>45576</v>
+        <v>45941</v>
       </c>
       <c r="D15" s="92"/>
       <c r="E15" s="8"/>
@@ -12094,7 +12112,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12111,7 +12129,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="96">
-        <v>45576</v>
+        <v>45941</v>
       </c>
       <c r="D16" s="92"/>
       <c r="E16" s="8"/>
@@ -12119,7 +12137,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12136,7 +12154,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="96">
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="D17" s="92"/>
       <c r="E17" s="8"/>
@@ -12144,7 +12162,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -12421,8 +12439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12439,55 +12457,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="E2" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="F2" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="G2" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="H2" s="122" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="I2" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="J2" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="122" t="s">
+      <c r="K2" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="122" t="s">
+      <c r="L2" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="122" t="s">
+      <c r="M2" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="O2" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="P2" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="Q2" s="122" t="s">
         <v>218</v>
-      </c>
-      <c r="O2" s="122" t="s">
-        <v>219</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q2" s="122" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -12516,7 +12534,7 @@
       </c>
       <c r="C4" s="72">
         <f>SUM(C6:C2000)</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -12580,7 +12598,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -12610,7 +12628,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12635,13 +12653,13 @@
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F8" s="64">
         <v>4</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -12672,7 +12690,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -12696,13 +12714,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10" s="64">
         <v>8</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -12732,7 +12750,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12757,13 +12775,13 @@
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F12" s="64">
         <v>4</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12794,7 +12812,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -12819,13 +12837,13 @@
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="64">
         <v>2</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12849,13 +12867,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F15" s="64">
         <v>8</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12872,11 +12890,21 @@
       <c r="A16" s="64">
         <v>11</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="74"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="70">
+        <v>45719</v>
+      </c>
+      <c r="C16" s="74">
+        <v>200</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="64">
+        <v>7</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>234</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -12892,12 +12920,22 @@
       <c r="A17" s="64">
         <v>12</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="70">
+        <v>45719</v>
+      </c>
+      <c r="C17" s="74">
+        <v>100</v>
+      </c>
       <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="E17" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="64">
+        <v>4</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>234</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -12913,12 +12951,22 @@
       <c r="A18" s="64">
         <v>13</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="70">
+        <v>45719</v>
+      </c>
+      <c r="C18" s="74">
+        <v>100</v>
+      </c>
       <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="E18" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="64">
+        <v>3</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>234</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12934,12 +12982,22 @@
       <c r="A19" s="64">
         <v>14</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="70">
+        <v>45722</v>
+      </c>
+      <c r="C19" s="74">
+        <v>300</v>
+      </c>
       <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="E19" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="64">
+        <v>1</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>257</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -15785,7 +15843,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C3" s="86">
         <v>5603</v>
@@ -15818,7 +15876,7 @@
       <c r="B5" s="65"/>
       <c r="C5" s="89">
         <f>incomes!C4</f>
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
@@ -15826,7 +15884,7 @@
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5258</v>
+        <v>5958</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16184,7 +16242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -16257,7 +16315,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -16279,7 +16337,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -16303,7 +16361,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -16327,7 +16385,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16351,7 +16409,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -16373,7 +16431,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16397,7 +16455,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16421,7 +16479,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -16439,7 +16497,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -16456,7 +16514,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -16473,7 +16531,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16496,7 +16554,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -16513,7 +16571,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16536,7 +16594,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -17988,7 +18046,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -18064,7 +18122,7 @@
         <v>45407</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18110,7 +18168,7 @@
         <v>45406</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -18133,7 +18191,7 @@
         <v>45406</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18177,7 +18235,7 @@
         <v>45406</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18200,7 +18258,7 @@
         <v>45434</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18221,7 +18279,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18265,7 +18323,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18311,7 +18369,7 @@
         <v>45409</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18334,7 +18392,7 @@
         <v>45409</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -18552,7 +18610,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="124" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
@@ -18570,7 +18628,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="102"/>
       <c r="F3" s="131" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
@@ -18625,7 +18683,7 @@
       </c>
       <c r="F5" s="65"/>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -18646,7 +18704,7 @@
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -18688,7 +18746,7 @@
       </c>
       <c r="F8" s="65"/>
       <c r="G8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -18709,7 +18767,7 @@
       </c>
       <c r="F9" s="65"/>
       <c r="G9" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -18751,7 +18809,7 @@
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -18772,7 +18830,7 @@
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -18793,7 +18851,7 @@
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -18835,7 +18893,7 @@
       </c>
       <c r="F15" s="65"/>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -18877,7 +18935,7 @@
       </c>
       <c r="F17" s="65"/>
       <c r="G17" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -18898,7 +18956,7 @@
       </c>
       <c r="F18" s="65"/>
       <c r="G18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -23552,7 +23610,7 @@
       </c>
       <c r="C6" s="31">
         <f>Apartment1!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="31">
         <f>Apartment2!D6</f>
@@ -23560,11 +23618,11 @@
       </c>
       <c r="E6" s="31">
         <f>Apartment3!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="31">
         <f>Apartment4!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="31">
         <f>Apartment5!D6</f>
@@ -23576,7 +23634,7 @@
       </c>
       <c r="I6" s="31">
         <f>Apartment7!D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J6" s="31">
         <f>Apartment8!D6</f>
@@ -23614,7 +23672,7 @@
       </c>
       <c r="C7" s="31">
         <f>Apartment1!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="31">
         <f>Apartment2!D7</f>
@@ -23622,11 +23680,11 @@
       </c>
       <c r="E7" s="31">
         <f>Apartment3!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="31">
         <f>Apartment4!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="31">
         <f>Apartment5!D7</f>
@@ -23638,7 +23696,7 @@
       </c>
       <c r="I7" s="31">
         <f>Apartment7!D7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J7" s="31">
         <f>Apartment8!D7</f>
@@ -23676,7 +23734,7 @@
       </c>
       <c r="C8" s="31">
         <f>Apartment1!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="31">
         <f>Apartment2!D8</f>
@@ -23684,11 +23742,11 @@
       </c>
       <c r="E8" s="31">
         <f>Apartment3!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="31">
         <f>Apartment4!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="31">
         <f>Apartment5!D8</f>
@@ -23700,7 +23758,7 @@
       </c>
       <c r="I8" s="31">
         <f>Apartment7!D8</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J8" s="31">
         <f>Apartment8!D8</f>
@@ -24602,12 +24660,12 @@
       </c>
       <c r="C5" s="113">
         <f>Apartment1!D4</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="116">
         <f>D5-C5</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>
@@ -24656,12 +24714,12 @@
       </c>
       <c r="C7" s="113">
         <f>Apartment3!D4</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D7" s="114"/>
       <c r="E7" s="116">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -24683,12 +24741,12 @@
       </c>
       <c r="C8" s="113">
         <f>Apartment4!D4</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="116">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -24764,12 +24822,12 @@
       </c>
       <c r="C11" s="113">
         <f>Apartment7!D4</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="116">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -25276,7 +25334,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="259">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة 3شهور 1،2،3 / 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء وتغيير لمبة فوق جراج سعد</t>
   </si>
 </sst>
 </file>
@@ -2069,24 +2072,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158705920"/>
-        <c:axId val="158339072"/>
+        <c:axId val="161478912"/>
+        <c:axId val="161034240"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="158705920"/>
+        <c:axId val="161478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158339072"/>
+        <c:crossAx val="161034240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158339072"/>
+        <c:axId val="161034240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2097,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158705920"/>
+        <c:crossAx val="161478912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11767,7 +11770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -15880,11 +15883,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>2445</v>
+        <v>2495</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5958</v>
+        <v>5908</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16242,8 +16245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16278,7 +16281,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>2445</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16610,9 +16613,15 @@
       <c r="A19" s="39">
         <v>15</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="79">
+        <v>45723</v>
+      </c>
+      <c r="C19" s="74">
+        <v>50</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>258</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="S19">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="24"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="260">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>تحت حساب شراء وتغيير لمبة فوق جراج سعد</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة الموتور نفخ البلالين</t>
   </si>
 </sst>
 </file>
@@ -2072,24 +2075,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161478912"/>
-        <c:axId val="161034240"/>
+        <c:axId val="153467904"/>
+        <c:axId val="153105152"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="161478912"/>
+        <c:axId val="153467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161034240"/>
+        <c:crossAx val="153105152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161034240"/>
+        <c:axId val="153105152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2100,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161478912"/>
+        <c:crossAx val="153467904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15813,7 +15816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15883,11 +15886,11 @@
       </c>
       <c r="D5" s="90">
         <f>outcomes!C3</f>
-        <v>2495</v>
+        <v>2595</v>
       </c>
       <c r="E5" s="91">
         <f>(C3+C5)-D5</f>
-        <v>5908</v>
+        <v>5808</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -16245,8 +16248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16281,7 +16284,7 @@
       </c>
       <c r="C3" s="72">
         <f>SUM(C5:C2002)</f>
-        <v>2495</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16632,9 +16635,15 @@
       <c r="A20" s="39">
         <v>16</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="79">
+        <v>45724</v>
+      </c>
+      <c r="C20" s="74">
+        <v>100</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>259</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="264">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -484,9 +484,6 @@
     <t>تم الدفع</t>
   </si>
   <si>
-    <t>تجميع لعمل درفة الباب الحديد الرئيسى وبناء حيطة فى المدخل</t>
-  </si>
-  <si>
     <t>موتور</t>
   </si>
   <si>
@@ -815,6 +812,27 @@
   </si>
   <si>
     <t>آمال</t>
+  </si>
+  <si>
+    <t>تحت حساب تكاليف عملية رقم (1) لسنة 2025 تغيير 4متر مواسير زهر بمواسير بلاستيك للصرف للدور الرابع والثالث بدل المواسير المسدودة بالمدخل الرئيسى للعمارة، حيث كانت المياه تخر منها بغزارة على حائط البيت</t>
+  </si>
+  <si>
+    <t>كشف الدفع عملية 1</t>
+  </si>
+  <si>
+    <t>معلومات</t>
+  </si>
+  <si>
+    <t>تاجير الحبل 500 جنيه لوحده</t>
+  </si>
+  <si>
+    <t>مواسير الزهر تباع  بالكيلو  14 جنيه للكيلو</t>
+  </si>
+  <si>
+    <t>اصلاح وتغيير ماسورة الصرف 4متر الوسطى عند المدخل الرئيسى للعمارة</t>
+  </si>
+  <si>
+    <t>تكلفة شراء اسمنت ابيض للعملية رقم (1)</t>
   </si>
 </sst>
 </file>
@@ -1423,6 +1441,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,21 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,24 +2045,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="114080000"/>
-        <c:axId val="113643520"/>
+        <c:axId val="36550144"/>
+        <c:axId val="36551680"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="114080000"/>
+        <c:axId val="36550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113643520"/>
+        <c:crossAx val="36551680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="113643520"/>
+        <c:axId val="36551680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2070,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114080000"/>
+        <c:crossAx val="36550144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3882,7 +3900,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4163,7 +4181,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4546,12 +4564,12 @@
       <c r="Q5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="113" t="s">
+      <c r="R5" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="120"/>
     </row>
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="8">
@@ -4569,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4601,7 +4619,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4776,10 +4794,10 @@
         <f>SUM(Q6:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="116"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="118"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="123"/>
     </row>
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="8">
@@ -5338,7 +5356,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5365,7 +5383,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5392,7 +5410,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5417,7 +5435,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5442,7 +5460,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5467,7 +5485,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5492,7 +5510,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5592,7 +5610,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5615,7 +5633,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6005,7 +6023,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6032,7 +6050,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6059,7 +6077,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6084,7 +6102,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6109,7 +6127,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6134,7 +6152,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6159,7 +6177,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6184,7 +6202,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6209,7 +6227,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6234,7 +6252,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6259,7 +6277,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6284,7 +6302,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7287,7 +7305,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7310,7 +7328,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7977,7 +7995,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8002,7 +8020,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8027,7 +8045,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8052,7 +8070,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8077,7 +8095,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8102,7 +8120,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8127,7 +8145,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8152,7 +8170,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8177,7 +8195,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8202,7 +8220,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8648,7 +8666,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8673,7 +8691,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8698,7 +8716,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8723,7 +8741,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8748,7 +8766,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8773,7 +8791,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8798,7 +8816,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8823,7 +8841,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8848,7 +8866,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8873,7 +8891,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9264,7 +9282,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9291,7 +9309,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9314,7 +9332,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9337,7 +9355,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9360,7 +9378,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9383,7 +9401,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9406,7 +9424,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9429,7 +9447,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9452,7 +9470,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9475,7 +9493,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9498,7 +9516,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9521,7 +9539,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9798,8 +9816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9815,7 +9833,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -9832,20 +9850,20 @@
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="119" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="F3" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -9871,7 +9889,9 @@
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="18.75">
       <c r="A5" s="8">
@@ -9890,11 +9910,13 @@
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
       <c r="A6" s="8">
@@ -9903,21 +9925,27 @@
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="101">
+        <v>100</v>
+      </c>
       <c r="D6" s="102">
         <v>100</v>
       </c>
       <c r="E6" s="104">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>100</v>
-      </c>
-      <c r="F6" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="53">
+        <v>45733</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
       <c r="A7" s="8">
@@ -9949,17 +9977,21 @@
       <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="101">
+        <v>100</v>
+      </c>
       <c r="D8" s="102">
         <v>100</v>
       </c>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F8" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
+        <v>45733</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9972,17 +10004,21 @@
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="101">
+        <v>200</v>
+      </c>
       <c r="D9" s="102">
         <v>200</v>
       </c>
       <c r="E9" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F9" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <v>45733</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9995,17 +10031,21 @@
       <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="101">
+        <v>200</v>
+      </c>
       <c r="D10" s="102">
         <v>200</v>
       </c>
       <c r="E10" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F10" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="53">
+        <v>45733</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10018,17 +10058,19 @@
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="101"/>
+      <c r="C11" s="101">
+        <v>200</v>
+      </c>
       <c r="D11" s="102">
         <v>200</v>
       </c>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10041,17 +10083,21 @@
       <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="101">
+        <v>100</v>
+      </c>
       <c r="D12" s="102">
         <v>200</v>
       </c>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F12" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="53">
+        <v>45733</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10064,17 +10110,21 @@
       <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="101">
+        <v>200</v>
+      </c>
       <c r="D13" s="102">
         <v>200</v>
       </c>
       <c r="E13" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F13" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="53">
+        <v>45733</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10087,17 +10137,21 @@
       <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="101"/>
+      <c r="C14" s="101">
+        <v>200</v>
+      </c>
       <c r="D14" s="102">
         <v>200</v>
       </c>
       <c r="E14" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F14" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>45733</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10124,7 +10178,7 @@
         <v>45733</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10137,15 +10191,19 @@
       <c r="B16" s="8">
         <v>12</v>
       </c>
-      <c r="C16" s="101"/>
+      <c r="C16" s="101">
+        <v>200</v>
+      </c>
       <c r="D16" s="102">
         <v>200</v>
       </c>
       <c r="E16" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F16" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="53">
+        <v>45733</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>145</v>
       </c>
@@ -10160,17 +10218,21 @@
       <c r="B17" s="8">
         <v>13</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="101">
+        <v>200</v>
+      </c>
       <c r="D17" s="102">
         <v>200</v>
       </c>
       <c r="E17" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F17" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>45733</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10183,17 +10245,21 @@
       <c r="B18" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="101"/>
+      <c r="C18" s="101">
+        <v>200</v>
+      </c>
       <c r="D18" s="102">
         <v>200</v>
       </c>
       <c r="E18" s="104">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F18" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>45733</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10459,7 +10525,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -10509,7 +10575,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -10536,7 +10602,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10563,7 +10629,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10588,7 +10654,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10613,7 +10679,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10638,7 +10704,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10663,7 +10729,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10688,7 +10754,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10713,7 +10779,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10738,7 +10804,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10763,7 +10829,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10788,7 +10854,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11066,7 +11132,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11083,55 +11149,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="C2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="D2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="E2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="F2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="G2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="H2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="I2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="J2" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="K2" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="L2" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="M2" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="N2" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="O2" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="P2" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="Q2" s="110" t="s">
         <v>213</v>
-      </c>
-      <c r="Q2" s="110" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -11160,7 +11226,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11224,7 +11290,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11254,7 +11320,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11279,13 +11345,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F8" s="52">
         <v>4</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11316,7 +11382,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11340,13 +11406,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="52">
         <v>8</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11376,7 +11442,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11401,13 +11467,13 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="52">
         <v>4</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11438,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11463,13 +11529,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11493,13 +11559,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="52">
         <v>8</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11529,7 +11595,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11554,13 +11620,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="52">
         <v>4</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11591,7 +11657,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -11616,13 +11682,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11639,11 +11705,19 @@
       <c r="A20" s="52">
         <v>15</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="62"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="58">
+        <v>45733</v>
+      </c>
+      <c r="C20" s="62">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>258</v>
+      </c>
       <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="G20" s="52" t="s">
+        <v>257</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -14469,7 +14543,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="74">
         <v>5603</v>
@@ -14502,15 +14576,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>2595</v>
+        <v>5090</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5808</v>
+        <v>5513</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14868,8 +14942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14904,7 +14978,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>2595</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -14927,7 +15001,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="S4" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
@@ -14941,7 +15015,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -14963,7 +15037,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -14987,7 +15061,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15011,7 +15085,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15035,7 +15109,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -15057,7 +15131,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -15081,7 +15155,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -15105,7 +15179,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -15123,7 +15197,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -15140,7 +15214,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -15157,7 +15231,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -15180,7 +15254,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -15197,7 +15271,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -15220,7 +15294,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -15243,7 +15317,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -15262,7 +15336,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -15282,9 +15356,15 @@
       <c r="A21" s="35">
         <v>17</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="67">
+        <v>45733</v>
+      </c>
+      <c r="C21" s="62">
+        <v>2450</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>257</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -15299,9 +15379,15 @@
       <c r="A22" s="35">
         <v>18</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="67">
+        <v>45733</v>
+      </c>
+      <c r="C22" s="62">
+        <v>45</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>263</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -15472,7 +15558,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="T33" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75">
@@ -16001,7 +16087,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="51"/>
     </row>
@@ -16010,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -16018,7 +16104,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -16026,7 +16112,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -16034,7 +16120,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -16042,7 +16128,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -16050,7 +16136,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -16058,7 +16144,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -16066,7 +16152,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -16108,7 +16194,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -16125,20 +16211,20 @@
     </row>
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
-      <c r="F3" s="119" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
+      <c r="F3" s="113" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
     </row>
     <row r="4" spans="1:17" ht="37.5">
       <c r="A4" s="12" t="s">
@@ -16181,7 +16267,7 @@
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -16202,7 +16288,7 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -16244,7 +16330,7 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -16265,7 +16351,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -16286,7 +16372,7 @@
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -16307,7 +16393,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -16328,7 +16414,7 @@
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16349,7 +16435,7 @@
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16370,7 +16456,7 @@
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16391,7 +16477,7 @@
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16433,7 +16519,7 @@
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16454,7 +16540,7 @@
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -20996,21 +21082,21 @@
   <sheetData>
     <row r="1" spans="1:20" ht="26.25">
       <c r="B1" s="18"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:20" ht="26.25">
       <c r="B2" s="18"/>
@@ -22113,11 +22199,11 @@
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="C3" s="90"/>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:14" ht="56.25">
       <c r="A4" s="12" t="s">
@@ -22832,7 +22918,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -23107,7 +23193,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -23498,7 +23584,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24489,14 +24575,14 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="122" t="s">
+      <c r="I20" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
       <c r="A21" s="8"/>
@@ -24507,14 +24593,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
     </row>
     <row r="22" spans="1:17" ht="18.75">
       <c r="A22" s="8"/>
@@ -24552,13 +24638,13 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" ht="18.75">
@@ -24573,13 +24659,13 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
       <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" ht="36" customHeight="1">
@@ -24594,13 +24680,13 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
       <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="266">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t>تكلفة شراء اسمنت ابيض للعملية رقم (1)</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر مارس /2025</t>
+  </si>
+  <si>
+    <t>معلهوش حاجة لانه حاسب على تصليح الماسورة الخاصة به ودفع 400 جنيه فى اصلاحها للسباك</t>
   </si>
 </sst>
 </file>
@@ -2045,24 +2051,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="36550144"/>
-        <c:axId val="36551680"/>
+        <c:axId val="159963392"/>
+        <c:axId val="159723520"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="36550144"/>
+        <c:axId val="159963392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36551680"/>
+        <c:crossAx val="159723520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36551680"/>
+        <c:axId val="159723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2076,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36550144"/>
+        <c:crossAx val="159963392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9816,8 +9822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10084,14 +10090,14 @@
         <v>8</v>
       </c>
       <c r="C12" s="101">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="102">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="53">
         <v>45733</v>
@@ -10100,7 +10106,9 @@
         <v>170</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="18.75">
@@ -14580,11 +14588,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>5090</v>
+        <v>5660</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5513</v>
+        <v>4943</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14942,8 +14950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14978,7 +14986,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>5090</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15402,9 +15410,15 @@
       <c r="A23" s="35">
         <v>19</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="67">
+        <v>45735</v>
+      </c>
+      <c r="C23" s="62">
+        <v>570</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>264</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -2051,24 +2051,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159963392"/>
-        <c:axId val="159723520"/>
+        <c:axId val="159364608"/>
+        <c:axId val="159366144"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="159963392"/>
+        <c:axId val="159364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159723520"/>
+        <c:crossAx val="159366144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159723520"/>
+        <c:axId val="159366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2076,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159963392"/>
+        <c:crossAx val="159364608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9823,7 +9823,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9906,15 +9906,19 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="101">
+        <v>100</v>
+      </c>
       <c r="D5" s="102">
         <v>100</v>
       </c>
       <c r="E5" s="104">
         <f>D5-C5</f>
-        <v>100</v>
-      </c>
-      <c r="F5" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="53">
+        <v>45736</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>256</v>
       </c>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="271">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -839,6 +839,21 @@
   </si>
   <si>
     <t>معلهوش حاجة لانه حاسب على تصليح الماسورة الخاصة به ودفع 400 جنيه فى اصلاحها للسباك</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر فبراير</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر مارس</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر مارس /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء لمبتين من بتاع الكهرباء عند المطافى واحدة باسم زهرا  18وات بضمان ست شهور وواحدة بدون ضمان 12 وات</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور ابريل - مايو - يونيو /2025</t>
   </si>
 </sst>
 </file>
@@ -2051,24 +2066,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="159364608"/>
-        <c:axId val="159366144"/>
+        <c:axId val="162903552"/>
+        <c:axId val="162905088"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="159364608"/>
+        <c:axId val="162903552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159366144"/>
+        <c:crossAx val="162905088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159366144"/>
+        <c:axId val="162905088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159364608"/>
+        <c:crossAx val="162903552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9822,7 +9837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -11144,7 +11159,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11238,7 +11253,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11745,12 +11760,22 @@
       <c r="A21" s="52">
         <v>16</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="62"/>
+      <c r="B21" s="58">
+        <v>45743</v>
+      </c>
+      <c r="C21" s="62">
+        <v>600</v>
+      </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="E21" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="52">
+        <v>12</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>270</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -14523,7 +14548,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14588,15 +14613,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>5660</v>
+        <v>6191</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4943</v>
+        <v>5012</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14954,8 +14979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14990,7 +15015,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>5660</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15209,7 +15234,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -15437,9 +15462,15 @@
       <c r="A24" s="35">
         <v>20</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="67">
+        <v>45741</v>
+      </c>
+      <c r="C24" s="62">
+        <v>61</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>267</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -15454,9 +15485,15 @@
       <c r="A25" s="35">
         <v>21</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="67">
+        <v>45741</v>
+      </c>
+      <c r="C25" s="62">
+        <v>10</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>241</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -15468,9 +15505,15 @@
       <c r="A26" s="35">
         <v>22</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="67">
+        <v>45743</v>
+      </c>
+      <c r="C26" s="62">
+        <v>400</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>268</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="T26" s="51"/>
@@ -15479,9 +15522,15 @@
       <c r="A27" s="35">
         <v>23</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="52"/>
+      <c r="B27" s="67">
+        <v>45743</v>
+      </c>
+      <c r="C27" s="62">
+        <v>60</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>269</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -21442,7 +21491,7 @@
       </c>
       <c r="N9" s="28">
         <f>Apartment12!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9" s="28">
         <f>Apartment13!D9</f>
@@ -21504,7 +21553,7 @@
       </c>
       <c r="N10" s="28">
         <f>Apartment12!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O10" s="28">
         <f>Apartment13!D10</f>
@@ -21566,7 +21615,7 @@
       </c>
       <c r="N11" s="28">
         <f>Apartment12!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O11" s="28">
         <f>Apartment13!D11</f>
@@ -23488,8 +23537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23547,7 +23596,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -23675,7 +23724,9 @@
       <c r="C9" s="84">
         <v>44995</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="35">
         <v>200</v>
@@ -23700,7 +23751,9 @@
       <c r="C10" s="84">
         <v>44995</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="35">
         <v>200</v>
@@ -23725,7 +23778,9 @@
       <c r="C11" s="84">
         <v>44995</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="35">
         <v>200</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="272">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهور ابريل - مايو - يونيو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب استبدال لمبة سلم عند الدور الرابع بعد الارضى بلمبة اخرى مستعملة ملولوة</t>
   </si>
 </sst>
 </file>
@@ -2066,24 +2069,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162903552"/>
-        <c:axId val="162905088"/>
+        <c:axId val="161199616"/>
+        <c:axId val="161201152"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="162903552"/>
+        <c:axId val="161199616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162905088"/>
+        <c:crossAx val="161201152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162905088"/>
+        <c:axId val="161201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162903552"/>
+        <c:crossAx val="161199616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5932,7 +5935,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5989,7 +5992,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6117,7 +6120,9 @@
       <c r="C9" s="58">
         <v>45384</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="35">
         <v>200</v>
@@ -7849,7 +7854,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7907,7 +7912,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8035,7 +8040,9 @@
       <c r="C9" s="70">
         <v>45384</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>100</v>
@@ -8519,7 +8526,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8578,7 +8585,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8706,7 +8713,9 @@
       <c r="C9" s="70">
         <v>45384</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="52">
+        <v>100</v>
+      </c>
       <c r="E9" s="52"/>
       <c r="F9" s="52">
         <v>100</v>
@@ -9837,8 +9846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9979,15 +9988,19 @@
       <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="101">
+        <v>100</v>
+      </c>
       <c r="D7" s="102">
         <v>100</v>
       </c>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F7" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
+        <v>45750</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>144</v>
       </c>
@@ -11159,7 +11172,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11253,7 +11266,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11791,12 +11804,21 @@
       <c r="A22" s="52">
         <v>17</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="B22" s="58">
+        <v>45750</v>
+      </c>
+      <c r="C22" s="62">
+        <v>200</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="52">
+        <v>7</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -11812,12 +11834,22 @@
       <c r="A23" s="52">
         <v>18</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="58">
+        <v>45750</v>
+      </c>
+      <c r="C23" s="62">
+        <v>100</v>
+      </c>
       <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="E23" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="52">
+        <v>4</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -11833,12 +11865,22 @@
       <c r="A24" s="52">
         <v>19</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="58">
+        <v>45750</v>
+      </c>
+      <c r="C24" s="62">
+        <v>100</v>
+      </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="E24" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="52">
+        <v>3</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -14548,7 +14590,7 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14613,15 +14655,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>6191</v>
+        <v>6231</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5012</v>
+        <v>5372</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14979,8 +15021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15015,7 +15057,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>6191</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15545,9 +15587,15 @@
       <c r="A28" s="35">
         <v>24</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="52"/>
+      <c r="B28" s="67">
+        <v>45743</v>
+      </c>
+      <c r="C28" s="62">
+        <v>40</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>271</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -21455,11 +21503,11 @@
       </c>
       <c r="E9" s="28">
         <f>Apartment3!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="28">
         <f>Apartment4!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="28">
         <f>Apartment5!D9</f>
@@ -21471,7 +21519,7 @@
       </c>
       <c r="I9" s="28">
         <f>Apartment7!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J9" s="28">
         <f>Apartment8!D9</f>
@@ -22365,12 +22413,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -22392,12 +22440,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -22473,12 +22521,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>
@@ -23537,7 +23585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="273">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>تحت حساب استبدال لمبة سلم عند الدور الرابع بعد الارضى بلمبة اخرى مستعملة ملولوة</t>
+  </si>
+  <si>
+    <t>تحت حساب شراء وتغيير حنفية النضافة بالمدخل الرئيسى بدل المسروقة</t>
   </si>
 </sst>
 </file>
@@ -2069,24 +2072,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161199616"/>
-        <c:axId val="161201152"/>
+        <c:axId val="42321408"/>
+        <c:axId val="42322944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="161199616"/>
+        <c:axId val="42321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161201152"/>
+        <c:crossAx val="42322944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161201152"/>
+        <c:axId val="42322944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2097,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161199616"/>
+        <c:crossAx val="42321408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9846,7 +9849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -14589,8 +14592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14659,11 +14662,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>6231</v>
+        <v>6431</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5372</v>
+        <v>5172</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15022,7 +15025,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15057,7 +15060,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>6231</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15607,9 +15610,15 @@
       <c r="A29" s="35">
         <v>25</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="67">
+        <v>45755</v>
+      </c>
+      <c r="C29" s="62">
+        <v>200</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>272</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="275">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -860,6 +860,12 @@
   </si>
   <si>
     <t>تحت حساب شراء وتغيير حنفية النضافة بالمدخل الرئيسى بدل المسروقة</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر ابريل /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى مارس و ابريل /2025</t>
   </si>
 </sst>
 </file>
@@ -2072,24 +2078,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="42321408"/>
-        <c:axId val="42322944"/>
+        <c:axId val="160884992"/>
+        <c:axId val="159207424"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="42321408"/>
+        <c:axId val="160884992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42322944"/>
+        <c:crossAx val="159207424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="42322944"/>
+        <c:axId val="159207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42321408"/>
+        <c:crossAx val="160884992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9201,8 +9207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9260,7 +9266,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -9358,8 +9364,12 @@
       <c r="B8" s="35">
         <v>3</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="84">
+        <v>45757</v>
+      </c>
+      <c r="D8" s="52">
+        <v>50</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="35">
         <v>50</v>
@@ -9381,8 +9391,12 @@
       <c r="B9" s="35">
         <v>4</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="84">
+        <v>45757</v>
+      </c>
+      <c r="D9" s="52">
+        <v>50</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="35">
         <v>50</v>
@@ -11174,8 +11188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11269,7 +11283,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11899,11 +11913,22 @@
       <c r="A25" s="52">
         <v>20</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="62"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="B25" s="58">
+        <v>45757</v>
+      </c>
+      <c r="C25" s="62">
+        <v>100</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="52">
+        <v>2</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>274</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -14592,7 +14617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -14658,15 +14683,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>6431</v>
+        <v>7157</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>5172</v>
+        <v>4546</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15024,8 +15049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15060,7 +15085,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>6431</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15630,9 +15655,15 @@
       <c r="A30" s="35">
         <v>26</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="52"/>
+      <c r="B30" s="67">
+        <v>45762</v>
+      </c>
+      <c r="C30" s="62">
+        <v>136</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>273</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -15644,9 +15675,15 @@
       <c r="A31" s="35">
         <v>27</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="67">
+        <v>45762</v>
+      </c>
+      <c r="C31" s="62">
+        <v>20</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>241</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -15658,9 +15695,15 @@
       <c r="A32" s="35">
         <v>28</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="52"/>
+      <c r="B32" s="67">
+        <v>45762</v>
+      </c>
+      <c r="C32" s="62">
+        <v>570</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>264</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -21446,7 +21489,7 @@
       </c>
       <c r="D8" s="28">
         <f>Apartment2!D8</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" s="28">
         <f>Apartment3!D8</f>
@@ -21508,7 +21551,7 @@
       </c>
       <c r="D9" s="28">
         <f>Apartment2!D9</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" s="28">
         <f>Apartment3!D9</f>
@@ -22395,12 +22438,12 @@
       </c>
       <c r="C6" s="101">
         <f>Apartment2!D4</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="104">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="18"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="276">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى مارس و ابريل /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر ابريل /2025</t>
   </si>
 </sst>
 </file>
@@ -2078,24 +2081,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160884992"/>
-        <c:axId val="159207424"/>
+        <c:axId val="157206016"/>
+        <c:axId val="157207552"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="160884992"/>
+        <c:axId val="157206016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159207424"/>
+        <c:crossAx val="157207552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="159207424"/>
+        <c:axId val="157207552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2106,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160884992"/>
+        <c:crossAx val="157206016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9207,7 +9210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -14687,11 +14690,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>7157</v>
+        <v>7677</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4546</v>
+        <v>4026</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15049,8 +15052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15085,7 +15088,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>7157</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15715,9 +15718,15 @@
       <c r="A33" s="35">
         <v>29</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="52"/>
+      <c r="B33" s="67">
+        <v>45772</v>
+      </c>
+      <c r="C33" s="62">
+        <v>400</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>275</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -15732,9 +15741,15 @@
       <c r="A34" s="35">
         <v>30</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="52"/>
+      <c r="B34" s="67">
+        <v>45771</v>
+      </c>
+      <c r="C34" s="62">
+        <v>100</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>254</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -15746,9 +15761,15 @@
       <c r="A35" s="35">
         <v>31</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="52"/>
+      <c r="B35" s="67">
+        <v>45775</v>
+      </c>
+      <c r="C35" s="62">
+        <v>20</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
       <c r="A36" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="277">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -511,9 +511,6 @@
     <t>كود</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر 1/ 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">تحت حساب صيانة شهر 12 </t>
   </si>
   <si>
@@ -869,6 +866,12 @@
   </si>
   <si>
     <t>تحت حساب نظافة السلم لام احمد عن شهر ابريل /2025</t>
+  </si>
+  <si>
+    <t>حاج/ حسين</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة سنة 2025 بالكامل ولم يتم حساب صيانة شقة 6 بالدور الاول</t>
   </si>
 </sst>
 </file>
@@ -2081,24 +2084,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157206016"/>
-        <c:axId val="157207552"/>
+        <c:axId val="115345280"/>
+        <c:axId val="115346816"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="157206016"/>
+        <c:axId val="115345280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157207552"/>
+        <c:crossAx val="115346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="157207552"/>
+        <c:axId val="115346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2109,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157206016"/>
+        <c:crossAx val="115345280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3824,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D20"/>
+    <sheetView rightToLeft="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3883,7 +3886,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -3930,13 +3933,15 @@
       <c r="C6" s="70">
         <v>45318</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="35">
+        <v>200</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3955,7 +3960,9 @@
       <c r="C7" s="70">
         <v>45318</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="35">
+        <v>200</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>200</v>
@@ -3980,7 +3987,9 @@
       <c r="C8" s="70">
         <v>45318</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35">
+        <v>200</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>200</v>
@@ -4005,7 +4014,9 @@
       <c r="C9" s="70">
         <v>45318</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>200</v>
@@ -4030,7 +4041,9 @@
       <c r="C10" s="70">
         <v>45318</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>200</v>
@@ -4055,7 +4068,9 @@
       <c r="C11" s="70">
         <v>45318</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>200</v>
@@ -4080,7 +4095,9 @@
       <c r="C12" s="58">
         <v>45569</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>200</v>
@@ -4105,7 +4122,9 @@
       <c r="C13" s="58">
         <v>45569</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="35">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <v>200</v>
@@ -4130,7 +4149,9 @@
       <c r="C14" s="58">
         <v>45569</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8">
         <v>200</v>
@@ -4155,7 +4176,9 @@
       <c r="C15" s="58">
         <v>45569</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="35">
+        <v>200</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <v>200</v>
@@ -4180,7 +4203,9 @@
       <c r="C16" s="58">
         <v>45569</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="35">
+        <v>200</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8">
         <v>200</v>
@@ -4205,7 +4230,9 @@
       <c r="C17" s="58">
         <v>45569</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="35">
+        <v>200</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <v>200</v>
@@ -4217,7 +4244,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4623,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4655,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5392,7 +5419,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5419,7 +5446,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5446,7 +5473,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5471,7 +5498,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5496,7 +5523,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5521,7 +5548,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5546,7 +5573,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5646,7 +5673,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5669,7 +5696,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6059,7 +6086,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6086,7 +6113,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6113,7 +6140,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6140,7 +6167,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6165,7 +6192,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6190,7 +6217,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6215,7 +6242,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6240,7 +6267,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6265,7 +6292,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6290,7 +6317,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6315,7 +6342,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6340,7 +6367,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7343,7 +7370,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7366,7 +7393,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -8033,7 +8060,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8060,7 +8087,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8085,7 +8112,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8110,7 +8137,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8135,7 +8162,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8160,7 +8187,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8185,7 +8212,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8210,7 +8237,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8235,7 +8262,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8260,7 +8287,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8706,7 +8733,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8733,7 +8760,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8758,7 +8785,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8783,7 +8810,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8808,7 +8835,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8833,7 +8860,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8858,7 +8885,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8883,7 +8910,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8908,7 +8935,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8933,7 +8960,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9324,7 +9351,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9351,7 +9378,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9378,7 +9405,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9405,7 +9432,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9428,7 +9455,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9451,7 +9478,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9474,7 +9501,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9497,7 +9524,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9520,7 +9547,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9543,7 +9570,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9566,7 +9593,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9589,7 +9616,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9883,7 +9910,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -9901,7 +9928,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -9940,7 +9967,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75">
@@ -9964,12 +9991,12 @@
         <v>45736</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
@@ -9993,12 +10020,12 @@
         <v>45733</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
@@ -10049,7 +10076,7 @@
         <v>45733</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10076,7 +10103,7 @@
         <v>45733</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10103,7 +10130,7 @@
         <v>45733</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10128,7 +10155,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10155,11 +10182,11 @@
         <v>45733</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -10184,7 +10211,7 @@
         <v>45733</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10211,7 +10238,7 @@
         <v>45733</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10238,7 +10265,7 @@
         <v>45733</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10292,7 +10319,7 @@
         <v>45733</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10319,7 +10346,7 @@
         <v>45733</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10585,7 +10612,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -10635,7 +10662,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -10662,7 +10689,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10689,7 +10716,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10714,7 +10741,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10739,7 +10766,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10764,7 +10791,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10789,7 +10816,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10814,7 +10841,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10839,7 +10866,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10864,7 +10891,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10889,7 +10916,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10914,7 +10941,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11192,7 +11219,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11209,55 +11236,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="C2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="D2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="E2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="F2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="G2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="H2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="I2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="J2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="K2" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="L2" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="M2" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="N2" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="O2" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="P2" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="Q2" s="110" t="s">
         <v>212</v>
-      </c>
-      <c r="Q2" s="110" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -11286,7 +11313,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>6100</v>
+        <v>8500</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11350,7 +11377,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11380,7 +11407,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11405,13 +11432,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="52">
         <v>4</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11442,7 +11469,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11466,13 +11493,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10" s="52">
         <v>8</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11502,7 +11529,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11527,13 +11554,13 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="52">
         <v>4</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11564,7 +11591,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11589,13 +11616,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11619,13 +11646,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" s="52">
         <v>8</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11655,7 +11682,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11680,13 +11707,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="52">
         <v>4</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11717,7 +11744,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -11742,13 +11769,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11772,11 +11799,11 @@
         <v>2200</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -11807,7 +11834,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -11837,7 +11864,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -11862,13 +11889,13 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23" s="52">
         <v>4</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -11899,7 +11926,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -11924,13 +11951,13 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="52">
         <v>2</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -11947,12 +11974,22 @@
       <c r="A26" s="52">
         <v>21</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="58">
+        <v>45777</v>
+      </c>
+      <c r="C26" s="62">
+        <v>2400</v>
+      </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="E26" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="52">
+        <v>10</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>276</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -14620,8 +14657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14653,7 +14690,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="74">
         <v>5603</v>
@@ -14686,7 +14723,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>6100</v>
+        <v>8500</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14694,7 +14731,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>4026</v>
+        <v>6426</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15052,7 +15089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -15125,7 +15162,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -15147,7 +15184,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15171,7 +15208,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15195,7 +15232,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15219,7 +15256,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -15241,7 +15278,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -15265,7 +15302,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -15289,7 +15326,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -15307,7 +15344,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -15324,7 +15361,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -15341,7 +15378,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -15364,7 +15401,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -15381,7 +15418,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -15404,7 +15441,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -15427,7 +15464,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -15446,7 +15483,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -15473,7 +15510,7 @@
         <v>2450</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15496,7 +15533,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -15519,7 +15556,7 @@
         <v>570</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -15542,7 +15579,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -15565,7 +15602,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -15585,7 +15622,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -15602,7 +15639,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -15625,7 +15662,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -15645,7 +15682,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -15665,7 +15702,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -15685,7 +15722,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -15705,7 +15742,7 @@
         <v>570</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -15725,7 +15762,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -15748,7 +15785,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -15768,7 +15805,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
@@ -16382,7 +16419,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -16400,7 +16437,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -16455,7 +16492,7 @@
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -16476,7 +16513,7 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -16518,7 +16555,7 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -16539,7 +16576,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -16560,7 +16597,7 @@
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -16581,7 +16618,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -16602,7 +16639,7 @@
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -16623,7 +16660,7 @@
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -16644,7 +16681,7 @@
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -16665,7 +16702,7 @@
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -16707,7 +16744,7 @@
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -16728,7 +16765,7 @@
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -21418,7 +21455,7 @@
       </c>
       <c r="L6" s="28">
         <f>Apartment10!D6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M6" s="28">
         <f>Apartment11!D6</f>
@@ -21480,7 +21517,7 @@
       </c>
       <c r="L7" s="28">
         <f>Apartment10!D7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M7" s="28">
         <f>Apartment11!D7</f>
@@ -21542,7 +21579,7 @@
       </c>
       <c r="L8" s="28">
         <f>Apartment10!D8</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M8" s="28">
         <f>Apartment11!D8</f>
@@ -21604,7 +21641,7 @@
       </c>
       <c r="L9" s="28">
         <f>Apartment10!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M9" s="28">
         <f>Apartment11!D9</f>
@@ -21666,7 +21703,7 @@
       </c>
       <c r="L10" s="28">
         <f>Apartment10!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" s="28">
         <f>Apartment11!D10</f>
@@ -21728,7 +21765,7 @@
       </c>
       <c r="L11" s="28">
         <f>Apartment10!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M11" s="28">
         <f>Apartment11!D11</f>
@@ -21790,7 +21827,7 @@
       </c>
       <c r="L12" s="28">
         <f>Apartment10!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M12" s="28">
         <f>Apartment11!D12</f>
@@ -21852,7 +21889,7 @@
       </c>
       <c r="L13" s="28">
         <f>Apartment10!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M13" s="28">
         <f>Apartment11!D13</f>
@@ -21914,7 +21951,7 @@
       </c>
       <c r="L14" s="28">
         <f>Apartment10!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M14" s="28">
         <f>Apartment11!D14</f>
@@ -21976,7 +22013,7 @@
       </c>
       <c r="L15" s="28">
         <f>Apartment10!D15</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M15" s="28">
         <f>Apartment11!D15</f>
@@ -22038,7 +22075,7 @@
       </c>
       <c r="L16" s="28">
         <f>Apartment10!D16</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M16" s="28">
         <f>Apartment11!D16</f>
@@ -22100,7 +22137,7 @@
       </c>
       <c r="L17" s="28">
         <f>Apartment10!D17</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M17" s="28">
         <f>Apartment11!D17</f>
@@ -22675,12 +22712,12 @@
       </c>
       <c r="C14" s="101">
         <f>Apartment10!D4</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="D14" s="102"/>
       <c r="E14" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>52</v>
@@ -23106,7 +23143,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -23381,7 +23418,7 @@
         <v>85</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -23772,7 +23809,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="277">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -2084,24 +2084,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="115345280"/>
-        <c:axId val="115346816"/>
+        <c:axId val="153610880"/>
+        <c:axId val="153371008"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="115345280"/>
+        <c:axId val="153610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115346816"/>
+        <c:crossAx val="153371008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115346816"/>
+        <c:axId val="153371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2109,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115345280"/>
+        <c:crossAx val="153610880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5973,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6031,7 +6031,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6186,7 +6186,9 @@
       <c r="C10" s="58">
         <v>45413</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="35">
         <v>200</v>
@@ -7893,7 +7895,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7951,7 +7953,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8106,7 +8108,9 @@
       <c r="C10" s="9">
         <v>45413</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
         <v>100</v>
@@ -8565,7 +8569,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8624,7 +8628,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8779,7 +8783,9 @@
       <c r="C10" s="70">
         <v>45413</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="52">
+        <v>100</v>
+      </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52">
         <v>100</v>
@@ -11219,7 +11225,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11313,7 +11319,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12005,12 +12011,21 @@
       <c r="A27" s="52">
         <v>22</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="B27" s="58">
+        <v>45779</v>
+      </c>
+      <c r="C27" s="62">
+        <v>200</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="52">
+        <v>7</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -12026,12 +12041,22 @@
       <c r="A28" s="52">
         <v>23</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="58">
+        <v>45779</v>
+      </c>
+      <c r="C28" s="62">
+        <v>100</v>
+      </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="E28" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="52">
+        <v>4</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -12047,12 +12072,22 @@
       <c r="A29" s="52">
         <v>24</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="58">
+        <v>45779</v>
+      </c>
+      <c r="C29" s="62">
+        <v>100</v>
+      </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="E29" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="52">
+        <v>3</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>230</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -14657,7 +14692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -14723,7 +14758,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14731,7 +14766,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6426</v>
+        <v>6826</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21675,11 +21710,11 @@
       </c>
       <c r="E10" s="28">
         <f>Apartment3!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="28">
         <f>Apartment4!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="28">
         <f>Apartment5!D10</f>
@@ -21691,7 +21726,7 @@
       </c>
       <c r="I10" s="28">
         <f>Apartment7!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" s="28">
         <f>Apartment8!D10</f>
@@ -22523,12 +22558,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -22550,12 +22585,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -22631,12 +22666,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="280">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -872,6 +872,15 @@
   </si>
   <si>
     <t>تحت حساب صيانة سنة 2025 بالكامل ولم يتم حساب صيانة شقة 6 بالدور الاول</t>
+  </si>
+  <si>
+    <t>م/منال</t>
+  </si>
+  <si>
+    <t>13، 14</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور 1، 2، 3، 4 /2025</t>
   </si>
 </sst>
 </file>
@@ -2084,24 +2093,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153610880"/>
-        <c:axId val="153371008"/>
+        <c:axId val="170016768"/>
+        <c:axId val="170018304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="153610880"/>
+        <c:axId val="170016768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153371008"/>
+        <c:crossAx val="170018304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="153371008"/>
+        <c:axId val="170018304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,7 +2118,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153610880"/>
+        <c:crossAx val="170016768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5973,7 +5982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -11224,8 +11233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11319,7 +11328,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>8900</v>
+        <v>9580</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12103,12 +12112,22 @@
       <c r="A30" s="52">
         <v>25</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="58">
+        <v>45784</v>
+      </c>
+      <c r="C30" s="62">
+        <v>680</v>
+      </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="E30" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>279</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -14758,7 +14777,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>8900</v>
+        <v>9580</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14766,7 +14785,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6826</v>
+        <v>7506</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21502,11 +21521,11 @@
       </c>
       <c r="O6" s="28">
         <f>Apartment13!D6</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P6" s="28">
         <f>Apartment14!D6</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="23.25">
@@ -21564,11 +21583,11 @@
       </c>
       <c r="O7" s="28">
         <f>Apartment13!D7</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P7" s="28">
         <f>Apartment14!D7</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="23.25">
@@ -21626,11 +21645,11 @@
       </c>
       <c r="O8" s="28">
         <f>Apartment13!D8</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P8" s="28">
         <f>Apartment14!D8</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="23.25">
@@ -21688,11 +21707,11 @@
       </c>
       <c r="O9" s="28">
         <f>Apartment13!D9</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P9" s="28">
         <f>Apartment14!D9</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="23.25">
@@ -22827,12 +22846,12 @@
       </c>
       <c r="C17" s="101">
         <f>Apartment13!D4</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-340</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>56</v>
@@ -22854,12 +22873,12 @@
       </c>
       <c r="C18" s="101">
         <f>Apartment14!D4</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="D18" s="102"/>
       <c r="E18" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-340</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
@@ -23066,8 +23085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D16"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23125,7 +23144,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -23172,7 +23191,9 @@
       <c r="C6" s="70">
         <v>45404</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="35">
+        <v>85</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>85</v>
@@ -23197,7 +23218,9 @@
       <c r="C7" s="70">
         <v>45404</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="35">
+        <v>85</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>85</v>
@@ -23222,7 +23245,9 @@
       <c r="C8" s="70">
         <v>45512</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35">
+        <v>85</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>85</v>
@@ -23247,7 +23272,9 @@
       <c r="C9" s="70">
         <v>45512</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>85</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>85</v>
@@ -24407,7 +24434,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24465,7 +24492,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -24512,7 +24539,9 @@
       <c r="C6" s="58">
         <v>45404</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="35">
+        <v>85</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>85</v>
@@ -24537,7 +24566,9 @@
       <c r="C7" s="58">
         <v>45404</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="35">
+        <v>85</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
         <v>85</v>
@@ -24562,7 +24593,9 @@
       <c r="C8" s="58">
         <v>45512</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35">
+        <v>85</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8">
         <v>85</v>
@@ -24587,7 +24620,9 @@
       <c r="C9" s="58">
         <v>45512</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>85</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <v>85</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="281">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهور 1، 2، 3، 4 /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى ابريل و مايو /2025</t>
   </si>
 </sst>
 </file>
@@ -2093,24 +2096,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="170016768"/>
-        <c:axId val="170018304"/>
+        <c:axId val="76597120"/>
+        <c:axId val="76598656"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="170016768"/>
+        <c:axId val="76597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170018304"/>
+        <c:crossAx val="76598656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="170018304"/>
+        <c:axId val="76598656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2121,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170016768"/>
+        <c:crossAx val="76597120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5316,7 +5319,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5373,7 +5376,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -5499,9 +5502,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="84">
-        <v>45760</v>
-      </c>
-      <c r="D9" s="35"/>
+        <v>45787</v>
+      </c>
+      <c r="D9" s="35">
+        <v>200</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="35">
         <v>200</v>
@@ -5524,9 +5529,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="84">
-        <v>45867</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>45787</v>
+      </c>
+      <c r="D10" s="35">
+        <v>200</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="35">
         <v>200</v>
@@ -11234,7 +11241,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11328,7 +11335,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>9580</v>
+        <v>9980</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12143,11 +12150,21 @@
       <c r="A31" s="52">
         <v>26</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="62"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="B31" s="58">
+        <v>45787</v>
+      </c>
+      <c r="C31" s="62">
+        <v>400</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="52">
+        <v>8</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>280</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -14711,7 +14728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -14777,7 +14794,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>9580</v>
+        <v>9980</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14785,7 +14802,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7506</v>
+        <v>7906</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21687,7 +21704,7 @@
       </c>
       <c r="J9" s="28">
         <f>Apartment8!D9</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="28">
         <f>Apartment9!D9</f>
@@ -21749,7 +21766,7 @@
       </c>
       <c r="J10" s="28">
         <f>Apartment8!D10</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" s="28">
         <f>Apartment9!D10</f>
@@ -22712,12 +22729,12 @@
       </c>
       <c r="C12" s="101">
         <f>Apartment8!D4</f>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>120</v>
@@ -23085,7 +23102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="282">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى ابريل و مايو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر مايو /2025</t>
   </si>
 </sst>
 </file>
@@ -2096,24 +2099,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76597120"/>
-        <c:axId val="76598656"/>
+        <c:axId val="76620928"/>
+        <c:axId val="76622464"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="76597120"/>
+        <c:axId val="76620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76598656"/>
+        <c:crossAx val="76622464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76598656"/>
+        <c:axId val="76622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2124,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76597120"/>
+        <c:crossAx val="76620928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14798,11 +14801,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>7677</v>
+        <v>7833</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7906</v>
+        <v>7750</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15161,7 +15164,7 @@
   <dimension ref="A2:T104"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15196,7 +15199,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>7677</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15883,17 +15886,29 @@
       <c r="A36" s="35">
         <v>32</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="67">
+        <v>45789</v>
+      </c>
+      <c r="C36" s="62">
+        <v>136</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
       <c r="A37" s="35">
         <v>33</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="109">
+        <v>45789</v>
+      </c>
+      <c r="C37" s="62">
+        <v>20</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="18.75">
       <c r="A38" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="283">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -887,6 +887,9 @@
   </si>
   <si>
     <t>تحت حساب كهرباء شهر مايو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر مايو /2025</t>
   </si>
 </sst>
 </file>
@@ -2099,24 +2102,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76620928"/>
-        <c:axId val="76622464"/>
+        <c:axId val="164293248"/>
+        <c:axId val="163987840"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="76620928"/>
+        <c:axId val="164293248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76622464"/>
+        <c:crossAx val="163987840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76622464"/>
+        <c:axId val="163987840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2127,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76620928"/>
+        <c:crossAx val="164293248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14731,7 +14734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -14801,11 +14804,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>7833</v>
+        <v>8543</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7750</v>
+        <v>7040</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15163,8 +15166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15199,7 +15202,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>7833</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15914,17 +15917,29 @@
       <c r="A38" s="35">
         <v>34</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="67">
+        <v>45802</v>
+      </c>
+      <c r="C38" s="62">
+        <v>670</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
       <c r="A39" s="35">
         <v>35</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="67">
+        <v>45802</v>
+      </c>
+      <c r="C39" s="62">
+        <v>40</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="18.75">
       <c r="A40" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="284">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -865,9 +865,6 @@
     <t>تحت حساب صيانة شهرى مارس و ابريل /2025</t>
   </si>
   <si>
-    <t>تحت حساب نظافة السلم لام احمد عن شهر ابريل /2025</t>
-  </si>
-  <si>
     <t>حاج/ حسين</t>
   </si>
   <si>
@@ -890,6 +887,12 @@
   </si>
   <si>
     <t>تحت حساب فاتورة المياه عن شهر مايو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر مايو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يونيه /2025</t>
   </si>
 </sst>
 </file>
@@ -2102,24 +2105,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="164293248"/>
-        <c:axId val="163987840"/>
+        <c:axId val="161879936"/>
+        <c:axId val="161881472"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="164293248"/>
+        <c:axId val="161879936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163987840"/>
+        <c:crossAx val="161881472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163987840"/>
+        <c:axId val="161881472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2130,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164293248"/>
+        <c:crossAx val="161879936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5995,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6053,7 +6056,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6235,7 +6238,9 @@
       <c r="C11" s="58">
         <v>45444</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="35">
         <v>200</v>
@@ -7917,7 +7922,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7975,7 +7980,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8157,7 +8162,9 @@
       <c r="C11" s="9">
         <v>45444</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>100</v>
@@ -8591,7 +8598,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8650,7 +8657,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8832,7 +8839,9 @@
       <c r="C11" s="70">
         <v>45444</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="52">
+        <v>100</v>
+      </c>
       <c r="E11" s="52"/>
       <c r="F11" s="52">
         <v>100</v>
@@ -11247,7 +11256,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11341,7 +11350,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>9980</v>
+        <v>10380</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12010,13 +12019,13 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F26" s="52">
         <v>10</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12133,13 +12142,13 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="G30" s="52" t="s">
         <v>278</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>279</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12169,7 +12178,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12186,11 +12195,21 @@
       <c r="A32" s="52">
         <v>27</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="62"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="B32" s="58">
+        <v>45806</v>
+      </c>
+      <c r="C32" s="62">
+        <v>200</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="52">
+        <v>7</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -12206,12 +12225,22 @@
       <c r="A33" s="52">
         <v>28</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="58">
+        <v>45806</v>
+      </c>
+      <c r="C33" s="62">
+        <v>100</v>
+      </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="E33" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="52">
+        <v>4</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -12227,12 +12256,22 @@
       <c r="A34" s="52">
         <v>29</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="62"/>
+      <c r="B34" s="58">
+        <v>45806</v>
+      </c>
+      <c r="C34" s="62">
+        <v>100</v>
+      </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="E34" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="52">
+        <v>3</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -14800,7 +14839,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>9980</v>
+        <v>10380</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14808,7 +14847,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7040</v>
+        <v>7440</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15166,8 +15205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView rightToLeft="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15835,12 +15874,6 @@
       <c r="B33" s="67">
         <v>45772</v>
       </c>
-      <c r="C33" s="62">
-        <v>400</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>274</v>
-      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -15896,7 +15929,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
@@ -15924,7 +15957,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -15945,9 +15978,15 @@
       <c r="A40" s="35">
         <v>36</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="67">
+        <v>45806</v>
+      </c>
+      <c r="C40" s="62">
+        <v>400</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>282</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:20" ht="18.75">
@@ -21838,11 +21877,11 @@
       </c>
       <c r="E11" s="28">
         <f>Apartment3!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="28">
         <f>Apartment4!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="28">
         <f>Apartment5!D11</f>
@@ -21854,7 +21893,7 @@
       </c>
       <c r="I11" s="28">
         <f>Apartment7!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J11" s="28">
         <f>Apartment8!D11</f>
@@ -22624,12 +22663,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -22651,12 +22690,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -22732,12 +22771,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="285">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر يونيه /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة 3شهور 4، 5، 6 / 2025</t>
   </si>
 </sst>
 </file>
@@ -2105,24 +2108,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="161879936"/>
-        <c:axId val="161881472"/>
+        <c:axId val="53987200"/>
+        <c:axId val="53988736"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="161879936"/>
+        <c:axId val="53987200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161881472"/>
+        <c:crossAx val="53988736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161881472"/>
+        <c:axId val="53988736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2133,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161879936"/>
+        <c:crossAx val="53987200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5998,7 +6001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10583,8 +10586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10641,7 +10644,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -10772,7 +10775,9 @@
       <c r="C9" s="58">
         <v>45857</v>
       </c>
-      <c r="D9" s="80"/>
+      <c r="D9" s="80">
+        <v>100</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="80">
         <v>100</v>
@@ -10797,7 +10802,9 @@
       <c r="C10" s="58">
         <v>45857</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="80">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="80">
         <v>100</v>
@@ -10822,7 +10829,9 @@
       <c r="C11" s="58">
         <v>45857</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="80">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="80">
         <v>100</v>
@@ -11255,8 +11264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B34"/>
+    <sheetView rightToLeft="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11350,7 +11359,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>10380</v>
+        <v>10680</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12287,12 +12296,22 @@
       <c r="A35" s="52">
         <v>30</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="62"/>
+      <c r="B35" s="58">
+        <v>45809</v>
+      </c>
+      <c r="C35" s="62">
+        <v>300</v>
+      </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="52">
+        <v>1</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>284</v>
+      </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -14839,7 +14858,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>10380</v>
+        <v>10680</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14847,7 +14866,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7440</v>
+        <v>7740</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21745,7 +21764,7 @@
       </c>
       <c r="C9" s="28">
         <f>Apartment1!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="28">
         <f>Apartment2!D9</f>
@@ -21807,7 +21826,7 @@
       </c>
       <c r="C10" s="28">
         <f>Apartment1!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="28">
         <f>Apartment2!D10</f>
@@ -21869,7 +21888,7 @@
       </c>
       <c r="C11" s="28">
         <f>Apartment1!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" s="28">
         <f>Apartment2!D11</f>
@@ -22609,12 +22628,12 @@
       </c>
       <c r="C5" s="101">
         <f>Apartment1!D4</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="104">
         <f>D5-C5</f>
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>50</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="289">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -896,6 +896,18 @@
   </si>
   <si>
     <t>تحت حساب صيانة 3شهور 4، 5، 6 / 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر يونيه /2025</t>
+  </si>
+  <si>
+    <t>اكرامية لمحصل المياه</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر يونيه /2025</t>
+  </si>
+  <si>
+    <t>اكرامية لمحصل الكهرباء</t>
   </si>
 </sst>
 </file>
@@ -2108,24 +2120,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53987200"/>
-        <c:axId val="53988736"/>
+        <c:axId val="53601024"/>
+        <c:axId val="53602560"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="53987200"/>
+        <c:axId val="53601024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53988736"/>
+        <c:crossAx val="53602560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53988736"/>
+        <c:axId val="53602560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2145,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53987200"/>
+        <c:crossAx val="53601024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10586,7 +10598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -14862,11 +14874,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>8543</v>
+        <v>9316</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7740</v>
+        <v>6967</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15224,8 +15236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15260,7 +15272,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>8543</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16012,41 +16024,71 @@
       <c r="A41" s="35">
         <v>37</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="67">
+        <v>45829</v>
+      </c>
+      <c r="C41" s="62">
+        <v>670</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
       <c r="A42" s="35">
         <v>38</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="67">
+        <v>45829</v>
+      </c>
+      <c r="C42" s="62">
+        <v>5</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
       <c r="A43" s="35">
         <v>39</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="52"/>
+      <c r="B43" s="67">
+        <v>45829</v>
+      </c>
+      <c r="C43" s="62">
+        <v>68</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
       <c r="A44" s="35">
         <v>40</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="52"/>
+      <c r="B44" s="67">
+        <v>45829</v>
+      </c>
+      <c r="C44" s="62">
+        <v>10</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
       <c r="A45" s="35">
         <v>41</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="52"/>
+      <c r="B45" s="67">
+        <v>45829</v>
+      </c>
+      <c r="C45" s="62">
+        <v>20</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="18.75">
       <c r="A46" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="291">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -908,6 +908,12 @@
   </si>
   <si>
     <t>اكرامية لمحصل الكهرباء</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى مايو و يونيه /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور من 1- 6 /2025</t>
   </si>
 </sst>
 </file>
@@ -2120,24 +2126,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53601024"/>
-        <c:axId val="53602560"/>
+        <c:axId val="53643136"/>
+        <c:axId val="53644672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="53601024"/>
+        <c:axId val="53643136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53602560"/>
+        <c:crossAx val="53644672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53602560"/>
+        <c:axId val="53644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,7 +2151,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53601024"/>
+        <c:crossAx val="53643136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4619,7 +4625,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2004)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -4678,9 +4684,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D6" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D6" s="62">
+        <v>100</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8">
         <v>100</v>
@@ -4710,9 +4718,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D7" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D7" s="62">
+        <v>100</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="52">
         <v>100</v>
@@ -4742,9 +4752,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D8" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D8" s="62">
+        <v>100</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="52">
         <v>100</v>
@@ -4774,9 +4786,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D9" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D9" s="62">
+        <v>100</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="52">
         <v>100</v>
@@ -4806,9 +4820,11 @@
         <v>5</v>
       </c>
       <c r="C10" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D10" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D10" s="62">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="52">
         <v>100</v>
@@ -4838,9 +4854,11 @@
         <v>6</v>
       </c>
       <c r="C11" s="58">
-        <v>45465</v>
-      </c>
-      <c r="D11" s="62"/>
+        <v>45830</v>
+      </c>
+      <c r="D11" s="62">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="52">
         <v>100</v>
@@ -4870,7 +4888,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="58">
-        <v>45465</v>
+        <v>45830</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="8"/>
@@ -4906,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="58">
-        <v>45465</v>
+        <v>45830</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="8"/>
@@ -4936,7 +4954,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="58">
-        <v>45465</v>
+        <v>45830</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="8"/>
@@ -4972,7 +4990,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="8"/>
@@ -5002,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="58">
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="8"/>
@@ -5027,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="58">
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="8"/>
@@ -9290,7 +9308,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9348,7 +9366,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -9500,8 +9518,12 @@
       <c r="B10" s="35">
         <v>5</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="84">
+        <v>45830</v>
+      </c>
+      <c r="D10" s="52">
+        <v>50</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="35">
         <v>50</v>
@@ -9523,8 +9545,12 @@
       <c r="B11" s="35">
         <v>6</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="84">
+        <v>45830</v>
+      </c>
+      <c r="D11" s="52">
+        <v>50</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="35">
         <v>50</v>
@@ -11276,8 +11302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11371,7 +11397,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>10680</v>
+        <v>11380</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12339,11 +12365,22 @@
       <c r="A36" s="52">
         <v>31</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="62"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="B36" s="58">
+        <v>45922</v>
+      </c>
+      <c r="C36" s="62">
+        <v>100</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="52">
+        <v>2</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>289</v>
+      </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
@@ -12360,11 +12397,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="58"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="62">
+        <v>600</v>
+      </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="52">
+        <v>9</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>290</v>
+      </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -14870,7 +14915,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>10680</v>
+        <v>11380</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14878,7 +14923,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>6967</v>
+        <v>7667</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15236,7 +15281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -21652,7 +21697,7 @@
       </c>
       <c r="K6" s="28">
         <f>Apartment9!D6</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6" s="28">
         <f>Apartment10!D6</f>
@@ -21714,7 +21759,7 @@
       </c>
       <c r="K7" s="28">
         <f>Apartment9!D7</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7" s="28">
         <f>Apartment10!D7</f>
@@ -21776,7 +21821,7 @@
       </c>
       <c r="K8" s="28">
         <f>Apartment9!D8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="28">
         <f>Apartment10!D8</f>
@@ -21838,7 +21883,7 @@
       </c>
       <c r="K9" s="28">
         <f>Apartment9!D9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="28">
         <f>Apartment10!D9</f>
@@ -21872,7 +21917,7 @@
       </c>
       <c r="D10" s="28">
         <f>Apartment2!D10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" s="28">
         <f>Apartment3!D10</f>
@@ -21900,7 +21945,7 @@
       </c>
       <c r="K10" s="28">
         <f>Apartment9!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="28">
         <f>Apartment10!D10</f>
@@ -21934,7 +21979,7 @@
       </c>
       <c r="D11" s="28">
         <f>Apartment2!D11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" s="28">
         <f>Apartment3!D11</f>
@@ -21962,7 +22007,7 @@
       </c>
       <c r="K11" s="28">
         <f>Apartment9!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" s="28">
         <f>Apartment10!D11</f>
@@ -22697,12 +22742,12 @@
       </c>
       <c r="C6" s="101">
         <f>Apartment2!D4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="104">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -22886,12 +22931,12 @@
       </c>
       <c r="C13" s="101">
         <f>Apartment9!D4</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D13" s="102"/>
       <c r="E13" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>53</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="294">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهور من 1- 6 /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر ابريل /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر يونية /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهر يوليه /2025</t>
   </si>
 </sst>
 </file>
@@ -2126,24 +2135,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53643136"/>
-        <c:axId val="53644672"/>
+        <c:axId val="81148544"/>
+        <c:axId val="81174912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="53643136"/>
+        <c:axId val="81148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53644672"/>
+        <c:crossAx val="81174912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53644672"/>
+        <c:axId val="81174912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2160,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53643136"/>
+        <c:crossAx val="81148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4559,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:V37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6032,7 +6041,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6089,7 +6098,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -6298,7 +6307,9 @@
       <c r="C12" s="58">
         <v>45474</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="35">
         <v>200</v>
@@ -7955,7 +7966,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8013,7 +8024,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8222,7 +8233,9 @@
       <c r="C12" s="9">
         <v>45474</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
         <v>100</v>
@@ -8631,7 +8644,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8690,7 +8703,7 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
@@ -8899,7 +8912,9 @@
       <c r="C12" s="70">
         <v>45474</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="52">
+        <v>100</v>
+      </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52">
         <v>100</v>
@@ -11302,8 +11317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11397,7 +11412,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>11380</v>
+        <v>11780</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12396,7 +12411,9 @@
       <c r="A37" s="52">
         <v>32</v>
       </c>
-      <c r="B37" s="58"/>
+      <c r="B37" s="58">
+        <v>45830</v>
+      </c>
       <c r="C37" s="62">
         <v>600</v>
       </c>
@@ -12425,12 +12442,21 @@
       <c r="A38" s="52">
         <v>33</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="B38" s="58">
+        <v>45839</v>
+      </c>
+      <c r="C38" s="62">
+        <v>200</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="52">
+        <v>7</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>293</v>
+      </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -12446,11 +12472,22 @@
       <c r="A39" s="52">
         <v>34</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="62"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
+      <c r="B39" s="58">
+        <v>45839</v>
+      </c>
+      <c r="C39" s="62">
+        <v>100</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="52">
+        <v>4</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
@@ -12466,12 +12503,22 @@
       <c r="A40" s="52">
         <v>35</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="58">
+        <v>45839</v>
+      </c>
+      <c r="C40" s="62">
+        <v>100</v>
+      </c>
       <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="E40" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="52">
+        <v>3</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51"/>
@@ -14915,15 +14962,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>11380</v>
+        <v>11780</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>9316</v>
+        <v>10116</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7667</v>
+        <v>7267</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15281,8 +15328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15317,7 +15364,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>9316</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -15950,6 +15997,12 @@
       <c r="B33" s="67">
         <v>45772</v>
       </c>
+      <c r="C33" s="62">
+        <v>400</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>291</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -16139,9 +16192,15 @@
       <c r="A46" s="35">
         <v>42</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="52"/>
+      <c r="B46" s="67">
+        <v>45833</v>
+      </c>
+      <c r="C46" s="62">
+        <v>400</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
       <c r="A47" s="35">
@@ -22045,11 +22104,11 @@
       </c>
       <c r="E12" s="28">
         <f>Apartment3!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="28">
         <f>Apartment4!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="28">
         <f>Apartment5!D12</f>
@@ -22061,7 +22120,7 @@
       </c>
       <c r="I12" s="28">
         <f>Apartment7!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J12" s="28">
         <f>Apartment8!D12</f>
@@ -22769,12 +22828,12 @@
       </c>
       <c r="C7" s="101">
         <f>Apartment3!D4</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D7" s="102"/>
       <c r="E7" s="104">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>48</v>
@@ -22796,12 +22855,12 @@
       </c>
       <c r="C8" s="101">
         <f>Apartment4!D4</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="104">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>48</v>
@@ -22877,12 +22936,12 @@
       </c>
       <c r="C11" s="101">
         <f>Apartment7!D4</f>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="D11" s="102"/>
       <c r="E11" s="104">
         <f t="shared" si="0"/>
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>48</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="295">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -923,6 +923,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهر يوليه /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور يوليو - اغسطس - سبتمبر /2025</t>
   </si>
 </sst>
 </file>
@@ -2135,24 +2138,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81148544"/>
-        <c:axId val="81174912"/>
+        <c:axId val="121023104"/>
+        <c:axId val="63587072"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="81148544"/>
+        <c:axId val="121023104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81174912"/>
+        <c:crossAx val="63587072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81174912"/>
+        <c:axId val="63587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2163,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81148544"/>
+        <c:crossAx val="121023104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11317,8 +11320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11412,7 +11415,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>11780</v>
+        <v>12380</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12534,12 +12537,22 @@
       <c r="A41" s="52">
         <v>36</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="62"/>
+      <c r="B41" s="58">
+        <v>45844</v>
+      </c>
+      <c r="C41" s="62">
+        <v>600</v>
+      </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
+      <c r="E41" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="52">
+        <v>12</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>294</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51"/>
@@ -14962,7 +14975,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>11780</v>
+        <v>12380</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -14970,7 +14983,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7267</v>
+        <v>7867</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -22140,7 +22153,7 @@
       </c>
       <c r="N12" s="28">
         <f>Apartment12!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O12" s="28">
         <f>Apartment13!D12</f>
@@ -22202,7 +22215,7 @@
       </c>
       <c r="N13" s="28">
         <f>Apartment12!D13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O13" s="28">
         <f>Apartment13!D13</f>
@@ -22264,7 +22277,7 @@
       </c>
       <c r="N14" s="28">
         <f>Apartment12!D14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O14" s="28">
         <f>Apartment13!D14</f>
@@ -24008,8 +24021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24067,7 +24080,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -24276,7 +24289,9 @@
       <c r="C12" s="84">
         <v>45475</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="35">
         <v>200</v>
@@ -24301,7 +24316,9 @@
       <c r="C13" s="84">
         <v>45475</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="35">
+        <v>200</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="35">
         <v>200</v>
@@ -24326,7 +24343,9 @@
       <c r="C14" s="84">
         <v>45475</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35">
+        <v>200</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="35">
         <v>200</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="296">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهور يوليو - اغسطس - سبتمبر /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر يوليو /2025</t>
   </si>
 </sst>
 </file>
@@ -2138,24 +2141,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121023104"/>
-        <c:axId val="63587072"/>
+        <c:axId val="148424960"/>
+        <c:axId val="148197376"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="121023104"/>
+        <c:axId val="148424960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63587072"/>
+        <c:crossAx val="148197376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="63587072"/>
+        <c:axId val="148197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2166,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121023104"/>
+        <c:crossAx val="148424960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14979,11 +14982,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>10116</v>
+        <v>10262</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7867</v>
+        <v>7721</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15341,8 +15344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15377,7 +15380,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>10116</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16219,17 +16222,29 @@
       <c r="A47" s="35">
         <v>43</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="52"/>
+      <c r="B47" s="67">
+        <v>45853</v>
+      </c>
+      <c r="C47" s="62">
+        <v>126</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
       <c r="A48" s="35">
         <v>44</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="52"/>
+      <c r="B48" s="67">
+        <v>45853</v>
+      </c>
+      <c r="C48" s="62">
+        <v>20</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
       <c r="A49" s="35">
@@ -24021,7 +24036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="297">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>تحت حساب كهرباء شهر يوليو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر يوليو /2025</t>
   </si>
 </sst>
 </file>
@@ -2141,24 +2144,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148424960"/>
-        <c:axId val="148197376"/>
+        <c:axId val="109951232"/>
+        <c:axId val="109715456"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="148424960"/>
+        <c:axId val="109951232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148197376"/>
+        <c:crossAx val="109715456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148197376"/>
+        <c:axId val="109715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2169,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148424960"/>
+        <c:crossAx val="109951232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11324,7 +11327,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14912,7 +14915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -14982,11 +14985,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>10262</v>
+        <v>10937</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7721</v>
+        <v>7046</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15344,8 +15347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15380,7 +15383,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>10262</v>
+        <v>10937</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16250,17 +16253,29 @@
       <c r="A49" s="35">
         <v>45</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="52"/>
+      <c r="B49" s="67">
+        <v>45858</v>
+      </c>
+      <c r="C49" s="62">
+        <v>670</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
       <c r="A50" s="35">
         <v>46</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="52"/>
+      <c r="B50" s="67">
+        <v>45858</v>
+      </c>
+      <c r="C50" s="62">
+        <v>5</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
       <c r="A51" s="35">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="298">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>تحت حساب فاتورة المياه عن شهر يوليو /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهرى يونية و يولية /2025</t>
   </si>
 </sst>
 </file>
@@ -2144,24 +2147,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="109951232"/>
-        <c:axId val="109715456"/>
+        <c:axId val="148728448"/>
+        <c:axId val="148750720"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="109951232"/>
+        <c:axId val="148728448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109715456"/>
+        <c:crossAx val="148750720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109715456"/>
+        <c:axId val="148750720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2172,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109951232"/>
+        <c:crossAx val="148728448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5379,7 +5382,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5436,7 +5439,7 @@
       <c r="C4" s="83"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="90">
@@ -5618,7 +5621,9 @@
       <c r="C11" s="84">
         <v>45867</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <v>200</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="35">
         <v>200</v>
@@ -5643,7 +5648,9 @@
       <c r="C12" s="84">
         <v>45867</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>200</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="35">
         <v>200</v>
@@ -11327,7 +11334,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11421,7 +11428,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>12380</v>
+        <v>12780</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -12574,12 +12581,21 @@
       <c r="A42" s="52">
         <v>37</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
+      <c r="B42" s="58">
+        <v>45861</v>
+      </c>
+      <c r="C42" s="62">
+        <v>400</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="52">
+        <v>8</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>297</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -14915,7 +14931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -14981,15 +14997,15 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>12380</v>
+        <v>12780</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>10937</v>
+        <v>11067</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7046</v>
+        <v>7316</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15347,8 +15363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15383,7 +15399,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>10937</v>
+        <v>11067</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16281,9 +16297,15 @@
       <c r="A51" s="35">
         <v>47</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="52"/>
+      <c r="B51" s="67">
+        <v>45861</v>
+      </c>
+      <c r="C51" s="62">
+        <v>130</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="18.75">
       <c r="A52" s="35">
@@ -22105,7 +22127,7 @@
       </c>
       <c r="J11" s="28">
         <f>Apartment8!D11</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K11" s="28">
         <f>Apartment9!D11</f>
@@ -22167,7 +22189,7 @@
       </c>
       <c r="J12" s="28">
         <f>Apartment8!D12</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K12" s="28">
         <f>Apartment9!D12</f>
@@ -23006,12 +23028,12 @@
       </c>
       <c r="C12" s="101">
         <f>Apartment8!D4</f>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="104">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>120</v>

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="12" activeTab="22"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="299">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -466,9 +466,6 @@
     <t>متحصلات شهور سنة 2023 لكل شقة</t>
   </si>
   <si>
-    <t>لسنة 2023</t>
-  </si>
-  <si>
     <t>حساب صيانة شهر يناير /2023</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>منال مصطفى</t>
   </si>
   <si>
-    <t>عن صيانة شهر يناير/2024</t>
-  </si>
-  <si>
     <t>سلمى</t>
   </si>
   <si>
@@ -935,6 +929,15 @@
   </si>
   <si>
     <t>تحت حساب صيانة شهرى يونية و يولية /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب صيانة شهور 5، 6، 7 /2025</t>
+  </si>
+  <si>
+    <t>عن صيانة شهر يناير/2025</t>
+  </si>
+  <si>
+    <t>لسنة 2025</t>
   </si>
 </sst>
 </file>
@@ -2147,24 +2150,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148728448"/>
-        <c:axId val="148750720"/>
+        <c:axId val="160418048"/>
+        <c:axId val="160182272"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="148728448"/>
+        <c:axId val="160418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148750720"/>
+        <c:crossAx val="160182272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148750720"/>
+        <c:axId val="160182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2175,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148728448"/>
+        <c:crossAx val="160418048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3360,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3383,7 +3386,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4004,7 +4007,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4307,7 +4310,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -4715,7 +4718,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4749,7 +4752,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5494,7 +5497,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -5521,7 +5524,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -5548,7 +5551,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5575,7 +5578,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -5602,7 +5605,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5629,7 +5632,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5656,7 +5659,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -5756,7 +5759,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -5779,7 +5782,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6169,7 +6172,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6196,7 +6199,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6223,7 +6226,7 @@
         <v>200</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6250,7 +6253,7 @@
         <v>200</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -6277,7 +6280,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6304,7 +6307,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6331,7 +6334,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6356,7 +6359,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6381,7 +6384,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6406,7 +6409,7 @@
         <v>200</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6431,7 +6434,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6456,7 +6459,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7459,7 +7462,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -7482,7 +7485,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -8149,7 +8152,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8176,7 +8179,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8203,7 +8206,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8230,7 +8233,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8257,7 +8260,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8282,7 +8285,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8307,7 +8310,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -8332,7 +8335,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8357,7 +8360,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8382,7 +8385,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8828,7 +8831,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -8855,7 +8858,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -8882,7 +8885,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8909,7 +8912,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8936,7 +8939,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8961,7 +8964,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -8986,7 +8989,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9011,7 +9014,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9036,7 +9039,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9061,7 +9064,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9452,7 +9455,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9479,7 +9482,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -9506,7 +9509,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -9533,7 +9536,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -9560,7 +9563,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -9587,7 +9590,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -9610,7 +9613,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -9633,7 +9636,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -9656,7 +9659,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -9679,7 +9682,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9702,7 +9705,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9725,7 +9728,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10019,7 +10022,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -10037,7 +10040,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -10076,7 +10079,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75">
@@ -10100,12 +10103,12 @@
         <v>45736</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75">
@@ -10129,12 +10132,12 @@
         <v>45733</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75">
@@ -10158,7 +10161,7 @@
         <v>45750</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10185,7 +10188,7 @@
         <v>45733</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10212,7 +10215,7 @@
         <v>45733</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10239,7 +10242,7 @@
         <v>45733</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10264,7 +10267,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10291,11 +10294,11 @@
         <v>45733</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -10320,7 +10323,7 @@
         <v>45733</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10347,7 +10350,7 @@
         <v>45733</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10374,7 +10377,7 @@
         <v>45733</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10401,7 +10404,7 @@
         <v>45733</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10428,7 +10431,7 @@
         <v>45733</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -10455,7 +10458,7 @@
         <v>45733</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10721,7 +10724,7 @@
         <v>1200</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -10771,7 +10774,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -10798,7 +10801,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -10825,7 +10828,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -10852,7 +10855,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -10879,7 +10882,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -10906,7 +10909,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10931,7 +10934,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10956,7 +10959,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10981,7 +10984,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11006,7 +11009,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11031,7 +11034,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11056,7 +11059,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11334,7 +11337,7 @@
   <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11351,55 +11354,55 @@
   <sheetData>
     <row r="2" spans="1:17" ht="26.25">
       <c r="A2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="D2" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="E2" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="F2" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="G2" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="H2" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="I2" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="J2" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="K2" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="L2" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="M2" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="N2" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="O2" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="P2" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="Q2" s="110" t="s">
         <v>210</v>
-      </c>
-      <c r="P2" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q2" s="110" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26.25">
@@ -11428,7 +11431,7 @@
       </c>
       <c r="C4" s="60">
         <f>SUM(C6:C2000)</f>
-        <v>12780</v>
+        <v>13380</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -11486,13 +11489,13 @@
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="52">
         <v>12</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11522,7 +11525,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -11547,13 +11550,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F8" s="52">
         <v>4</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11578,13 +11581,13 @@
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="52">
         <v>3</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11608,13 +11611,13 @@
         <v>200</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F10" s="52">
         <v>8</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11644,7 +11647,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -11669,13 +11672,13 @@
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F12" s="52">
         <v>4</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -11700,13 +11703,13 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="52">
         <v>3</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -11731,13 +11734,13 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="52">
         <v>2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -11761,13 +11764,13 @@
         <v>400</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F15" s="52">
         <v>8</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11797,7 +11800,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11822,13 +11825,13 @@
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F17" s="52">
         <v>4</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11853,13 +11856,13 @@
       </c>
       <c r="D18" s="52"/>
       <c r="E18" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="52">
         <v>3</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -11884,13 +11887,13 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F19" s="52">
         <v>1</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11914,11 +11917,11 @@
         <v>2200</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -11943,13 +11946,13 @@
       </c>
       <c r="D21" s="52"/>
       <c r="E21" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="52">
         <v>12</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -11979,7 +11982,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -12004,13 +12007,13 @@
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" s="52">
         <v>4</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -12035,13 +12038,13 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="52">
         <v>3</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -12066,13 +12069,13 @@
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="52">
         <v>2</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -12097,13 +12100,13 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F26" s="52">
         <v>10</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -12133,7 +12136,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -12158,13 +12161,13 @@
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F28" s="52">
         <v>4</v>
       </c>
       <c r="G28" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -12189,13 +12192,13 @@
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="52">
         <v>3</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -12220,13 +12223,13 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>276</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>278</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -12250,13 +12253,13 @@
         <v>400</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F31" s="52">
         <v>8</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -12286,7 +12289,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -12311,13 +12314,13 @@
       </c>
       <c r="D33" s="52"/>
       <c r="E33" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F33" s="52">
         <v>4</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -12342,13 +12345,13 @@
       </c>
       <c r="D34" s="52"/>
       <c r="E34" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F34" s="52">
         <v>3</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -12373,13 +12376,13 @@
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F35" s="52">
         <v>1</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -12404,13 +12407,13 @@
       </c>
       <c r="D36" s="52"/>
       <c r="E36" s="52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="52">
         <v>2</v>
       </c>
       <c r="G36" s="52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -12435,13 +12438,13 @@
       </c>
       <c r="D37" s="52"/>
       <c r="E37" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" s="52">
         <v>9</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -12471,7 +12474,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
@@ -12496,13 +12499,13 @@
       </c>
       <c r="D39" s="52"/>
       <c r="E39" s="52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F39" s="52">
         <v>4</v>
       </c>
       <c r="G39" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
@@ -12527,13 +12530,13 @@
       </c>
       <c r="D40" s="52"/>
       <c r="E40" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40" s="52">
         <v>3</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
@@ -12558,13 +12561,13 @@
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="52">
         <v>12</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="51"/>
@@ -12588,13 +12591,13 @@
         <v>400</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" s="52">
         <v>8</v>
       </c>
       <c r="G42" s="52" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -12611,11 +12614,22 @@
       <c r="A43" s="52">
         <v>38</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="62"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
+      <c r="B43" s="58">
+        <v>45866</v>
+      </c>
+      <c r="C43" s="62">
+        <v>600</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>296</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -14964,7 +14978,7 @@
     </row>
     <row r="3" spans="1:15" ht="18.75">
       <c r="B3" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="74">
         <v>5603</v>
@@ -14997,7 +15011,7 @@
       <c r="B5" s="53"/>
       <c r="C5" s="77">
         <f>incomes!C4</f>
-        <v>12780</v>
+        <v>13380</v>
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
@@ -15005,7 +15019,7 @@
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7316</v>
+        <v>7916</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15363,7 +15377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -15422,7 +15436,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="S4" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
@@ -15436,7 +15450,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -15458,7 +15472,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15482,7 +15496,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15506,7 +15520,7 @@
         <v>570</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15530,7 +15544,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -15552,7 +15566,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -15576,7 +15590,7 @@
         <v>400</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -15600,7 +15614,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -15618,7 +15632,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S13">
         <v>4</v>
@@ -15635,7 +15649,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -15652,7 +15666,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -15675,7 +15689,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S16">
         <v>6</v>
@@ -15692,7 +15706,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -15715,7 +15729,7 @@
         <v>400</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -15738,7 +15752,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -15757,7 +15771,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -15784,7 +15798,7 @@
         <v>2450</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15807,7 +15821,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -15830,7 +15844,7 @@
         <v>570</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -15853,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -15876,7 +15890,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -15896,7 +15910,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -15913,7 +15927,7 @@
         <v>60</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -15936,7 +15950,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -15956,7 +15970,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -15976,7 +15990,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -15996,7 +16010,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -16016,7 +16030,7 @@
         <v>570</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -16036,7 +16050,7 @@
         <v>400</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -16045,7 +16059,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="T33" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18.75">
@@ -16059,7 +16073,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -16079,7 +16093,7 @@
         <v>20</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18.75">
@@ -16093,7 +16107,7 @@
         <v>136</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="18.75">
@@ -16107,7 +16121,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18.75">
@@ -16121,7 +16135,7 @@
         <v>670</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18.75">
@@ -16135,7 +16149,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="18.75">
@@ -16149,7 +16163,7 @@
         <v>400</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -16164,7 +16178,7 @@
         <v>670</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18.75">
@@ -16178,7 +16192,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="18.75">
@@ -16192,7 +16206,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="18.75">
@@ -16206,7 +16220,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="18.75">
@@ -16220,7 +16234,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="18.75">
@@ -16234,7 +16248,7 @@
         <v>400</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75">
@@ -16248,7 +16262,7 @@
         <v>126</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18.75">
@@ -16262,7 +16276,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75">
@@ -16276,7 +16290,7 @@
         <v>670</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75">
@@ -16290,7 +16304,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75">
@@ -16304,7 +16318,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75">
@@ -16682,7 +16696,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="51"/>
     </row>
@@ -16691,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -16699,7 +16713,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -16707,7 +16721,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -16715,7 +16729,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -16723,7 +16737,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -16731,7 +16745,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -16739,7 +16753,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -16747,7 +16761,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -16789,7 +16803,7 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1"/>
     <row r="2" spans="1:17" ht="59.25" customHeight="1">
       <c r="C2" s="112" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
@@ -16807,7 +16821,7 @@
     <row r="3" spans="1:17" ht="21">
       <c r="C3" s="90"/>
       <c r="F3" s="113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
@@ -16862,7 +16876,7 @@
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -16883,7 +16897,7 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -16904,7 +16918,7 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -16925,7 +16939,7 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -16946,7 +16960,7 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -16967,7 +16981,7 @@
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -16988,7 +17002,7 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -17009,7 +17023,7 @@
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -17030,7 +17044,7 @@
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -17051,7 +17065,7 @@
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -17072,7 +17086,7 @@
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -17093,7 +17107,7 @@
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -17114,7 +17128,7 @@
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -17135,7 +17149,7 @@
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -22085,11 +22099,11 @@
       </c>
       <c r="O10" s="28">
         <f>Apartment13!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="28">
         <f>Apartment14!D10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="23.25">
@@ -22147,11 +22161,11 @@
       </c>
       <c r="O11" s="28">
         <f>Apartment13!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P11" s="28">
         <f>Apartment14!D11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="23.25">
@@ -22209,11 +22223,11 @@
       </c>
       <c r="O12" s="28">
         <f>Apartment13!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="28">
         <f>Apartment14!D12</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="23.25">
@@ -23162,12 +23176,12 @@
       </c>
       <c r="C17" s="101">
         <f>Apartment13!D4</f>
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="D17" s="102"/>
       <c r="E17" s="104">
         <f t="shared" si="0"/>
-        <v>-340</v>
+        <v>-640</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>56</v>
@@ -23189,12 +23203,12 @@
       </c>
       <c r="C18" s="101">
         <f>Apartment14!D4</f>
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="D18" s="102"/>
       <c r="E18" s="104">
         <f t="shared" si="0"/>
-        <v>-340</v>
+        <v>-640</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>57</v>
@@ -23401,8 +23415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23460,12 +23474,12 @@
       <c r="C4" s="69"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <f>SUM(F6:F2001)</f>
-        <v>1020</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -23505,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="70">
-        <v>45404</v>
+        <v>45769</v>
       </c>
       <c r="D6" s="35">
         <v>85</v>
@@ -23515,7 +23529,7 @@
         <v>85</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -23532,7 +23546,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="70">
-        <v>45404</v>
+        <v>45769</v>
       </c>
       <c r="D7" s="35">
         <v>85</v>
@@ -23559,7 +23573,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="70">
-        <v>45512</v>
+        <v>45877</v>
       </c>
       <c r="D8" s="35">
         <v>85</v>
@@ -23586,7 +23600,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="70">
-        <v>45512</v>
+        <v>45877</v>
       </c>
       <c r="D9" s="35">
         <v>85</v>
@@ -23613,12 +23627,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="70">
-        <v>45512</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D10" s="35">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>102</v>
@@ -23638,12 +23654,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="70">
-        <v>45512</v>
-      </c>
-      <c r="D11" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D11" s="35">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>85</v>
+      <c r="F11" s="52">
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>103</v>
@@ -23663,12 +23681,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="70">
-        <v>45512</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D12" s="35">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>85</v>
+      <c r="F12" s="52">
+        <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>104</v>
@@ -23688,12 +23708,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="108">
-        <v>45250</v>
+        <v>45981</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>85</v>
+      <c r="F13" s="52">
+        <v>100</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>105</v>
@@ -23713,12 +23733,12 @@
         <v>9</v>
       </c>
       <c r="C14" s="108">
-        <v>45250</v>
+        <v>45981</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>85</v>
+      <c r="F14" s="52">
+        <v>100</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>106</v>
@@ -23738,12 +23758,12 @@
         <v>10</v>
       </c>
       <c r="C15" s="70">
-        <v>45259</v>
+        <v>45990</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>85</v>
+      <c r="F15" s="52">
+        <v>100</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>107</v>
@@ -23763,12 +23783,12 @@
         <v>11</v>
       </c>
       <c r="C16" s="70">
-        <v>45259</v>
+        <v>45990</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>85</v>
+      <c r="F16" s="52">
+        <v>100</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>108</v>
@@ -23788,15 +23808,15 @@
         <v>12</v>
       </c>
       <c r="C17" s="70">
-        <v>45291</v>
+        <v>46022</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>85</v>
+      <c r="F17" s="52">
+        <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -24187,7 +24207,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24755,8 +24775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24814,12 +24834,12 @@
       <c r="C4" s="56"/>
       <c r="D4" s="90">
         <f>SUM(D6:D2001)</f>
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11">
         <f>SUM(F6:F2001)</f>
-        <v>1020</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="56.25">
@@ -24859,7 +24879,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="58">
-        <v>45404</v>
+        <v>45769</v>
       </c>
       <c r="D6" s="35">
         <v>85</v>
@@ -24886,7 +24906,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="58">
-        <v>45404</v>
+        <v>45769</v>
       </c>
       <c r="D7" s="35">
         <v>85</v>
@@ -24913,7 +24933,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="58">
-        <v>45512</v>
+        <v>45877</v>
       </c>
       <c r="D8" s="35">
         <v>85</v>
@@ -24940,7 +24960,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="58">
-        <v>45512</v>
+        <v>45877</v>
       </c>
       <c r="D9" s="35">
         <v>85</v>
@@ -24967,12 +24987,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="58">
-        <v>45512</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D10" s="35">
+        <v>100</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>102</v>
@@ -24992,12 +25014,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="58">
-        <v>45512</v>
-      </c>
-      <c r="D11" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D11" s="35">
+        <v>100</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>85</v>
+      <c r="F11" s="52">
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>103</v>
@@ -25017,12 +25041,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="58">
-        <v>45512</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>45877</v>
+      </c>
+      <c r="D12" s="35">
+        <v>100</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>85</v>
+      <c r="F12" s="52">
+        <v>100</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>104</v>
@@ -25042,12 +25068,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="58">
-        <v>45250</v>
+        <v>45981</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>85</v>
+      <c r="F13" s="52">
+        <v>100</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>105</v>
@@ -25067,12 +25093,12 @@
         <v>9</v>
       </c>
       <c r="C14" s="58">
-        <v>45250</v>
+        <v>45981</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <v>85</v>
+      <c r="F14" s="52">
+        <v>100</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>106</v>
@@ -25092,12 +25118,12 @@
         <v>10</v>
       </c>
       <c r="C15" s="58">
-        <v>45259</v>
+        <v>45990</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>85</v>
+      <c r="F15" s="52">
+        <v>100</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>107</v>
@@ -25117,12 +25143,12 @@
         <v>11</v>
       </c>
       <c r="C16" s="58">
-        <v>45259</v>
+        <v>45990</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>85</v>
+      <c r="F16" s="52">
+        <v>100</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>108</v>
@@ -25142,12 +25168,12 @@
         <v>12</v>
       </c>
       <c r="C17" s="58">
-        <v>45291</v>
+        <v>46022</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>85</v>
+      <c r="F17" s="52">
+        <v>100</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>109</v>
@@ -25217,7 +25243,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="2"/>
       <c r="I21" s="116" t="s">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="J21" s="116"/>
       <c r="K21" s="116"/>
@@ -25337,7 +25363,7 @@
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75">

--- a/Book2025.xlsx
+++ b/Book2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8115" tabRatio="947" firstSheet="11" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="301">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>لسنة 2025</t>
+  </si>
+  <si>
+    <t>تحت حساب تنظيف الجنينة الخلفية للمنزل</t>
+  </si>
+  <si>
+    <t>تحت حساب نظافة السلم لام احمد عن شهر يولية /2025</t>
   </si>
 </sst>
 </file>
@@ -2150,24 +2156,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160418048"/>
-        <c:axId val="160182272"/>
+        <c:axId val="163236096"/>
+        <c:axId val="163000320"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="160418048"/>
+        <c:axId val="163236096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-1010000]yyyy/mm/dd;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160182272"/>
+        <c:crossAx val="163000320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160182272"/>
+        <c:axId val="163000320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2181,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160418048"/>
+        <c:crossAx val="163236096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15015,11 +15021,11 @@
       </c>
       <c r="D5" s="78">
         <f>outcomes!C3</f>
-        <v>11067</v>
+        <v>11567</v>
       </c>
       <c r="E5" s="79">
         <f>(C3+C5)-D5</f>
-        <v>7916</v>
+        <v>7416</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -15377,8 +15383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15413,7 +15419,7 @@
       </c>
       <c r="C3" s="60">
         <f>SUM(C5:C2002)</f>
-        <v>11067</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="37.5">
@@ -16325,17 +16331,29 @@
       <c r="A52" s="35">
         <v>48</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="52"/>
+      <c r="B52" s="67">
+        <v>45871</v>
+      </c>
+      <c r="C52" s="62">
+        <v>400</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="18.75">
       <c r="A53" s="35">
         <v>49</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="52"/>
+      <c r="B53" s="67">
+        <v>45871</v>
+      </c>
+      <c r="C53" s="62">
+        <v>100</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="18.75">
       <c r="A54" s="35">
@@ -24775,7 +24793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
